--- a/coordenadas.xlsx
+++ b/coordenadas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramir\Documents\TEC\TEC\Proyecto de Asistencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42536B97-F086-4925-AC92-6F2108698F3D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A31FF0B9-C268-4BAE-84E0-5AE60663A609}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8130" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1448,7 +1448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1499,71 +1499,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1577,13 +1517,74 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1924,18 +1925,18 @@
   <sheetData>
     <row r="1" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -2004,31 +2005,31 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="32" t="s">
+      <c r="C4" s="53"/>
+      <c r="D4" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="39"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="47"/>
     </row>
     <row r="5" spans="1:13" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="31"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="51"/>
       <c r="E5" s="6" t="s">
         <v>15</v>
       </c>
@@ -2047,13 +2048,13 @@
       <c r="J5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="51" t="s">
+      <c r="K5" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="52" t="s">
+      <c r="L5" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="M5" s="52" t="s">
+      <c r="M5" s="22" t="s">
         <v>330</v>
       </c>
     </row>
@@ -2088,13 +2089,13 @@
       <c r="J6" s="10">
         <v>348223.23</v>
       </c>
-      <c r="K6" s="44">
+      <c r="K6" s="18">
         <v>1168959.1200000001</v>
       </c>
-      <c r="L6" s="49">
+      <c r="L6" s="20">
         <v>-85.386819500000001</v>
       </c>
-      <c r="M6" s="49">
+      <c r="M6" s="20">
         <v>10.5685225</v>
       </c>
     </row>
@@ -2129,71 +2130,71 @@
       <c r="J7" s="13">
         <v>374140.89</v>
       </c>
-      <c r="K7" s="45">
+      <c r="K7" s="19">
         <v>1169911.93</v>
       </c>
-      <c r="L7" s="49">
+      <c r="L7" s="20">
         <v>-85.150070600000006</v>
       </c>
-      <c r="M7" s="49">
+      <c r="M7" s="20">
         <v>10.5780882</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="24">
+      <c r="A8" s="32">
         <v>165</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="I8" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="26">
         <v>368827.55</v>
       </c>
-      <c r="K8" s="46">
+      <c r="K8" s="29">
         <v>1180585.57</v>
       </c>
-      <c r="L8" s="50">
+      <c r="L8" s="42">
         <v>-85.198991800000002</v>
       </c>
-      <c r="M8" s="50">
+      <c r="M8" s="42">
         <v>10.674391999999999</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
     </row>
     <row r="10" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
@@ -2226,13 +2227,13 @@
       <c r="J10" s="13">
         <v>379594.44</v>
       </c>
-      <c r="K10" s="45">
+      <c r="K10" s="19">
         <v>1179999.95</v>
       </c>
-      <c r="L10" s="49">
+      <c r="L10" s="20">
         <v>-85.100570300000001</v>
       </c>
-      <c r="M10" s="49">
+      <c r="M10" s="20">
         <v>10.669460000000001</v>
       </c>
     </row>
@@ -2267,101 +2268,101 @@
       <c r="J11" s="13">
         <v>368780.69</v>
       </c>
-      <c r="K11" s="45">
+      <c r="K11" s="19">
         <v>1176376.5900000001</v>
       </c>
-      <c r="L11" s="49">
+      <c r="L11" s="20">
         <v>-85.199271100000004</v>
       </c>
-      <c r="M11" s="49">
+      <c r="M11" s="20">
         <v>10.6363433</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="24">
+      <c r="A12" s="32">
         <v>169</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="I12" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="26">
         <v>366064.68</v>
       </c>
-      <c r="K12" s="46">
+      <c r="K12" s="29">
         <v>1184139.48</v>
       </c>
-      <c r="L12" s="50">
+      <c r="L12" s="42">
         <v>-85.224370800000003</v>
       </c>
-      <c r="M12" s="50">
+      <c r="M12" s="42">
         <v>10.7064194</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="25"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="25"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
     </row>
     <row r="15" spans="1:13" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="26"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
     </row>
     <row r="16" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
@@ -2394,14 +2395,14 @@
       <c r="J16" s="13">
         <v>361793.04</v>
       </c>
-      <c r="K16" s="45">
+      <c r="K16" s="19">
         <v>1182961.1599999999</v>
       </c>
       <c r="L16" s="14"/>
-      <c r="M16" s="45"/>
+      <c r="M16" s="19"/>
     </row>
     <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.2">
-      <c r="A17" s="24">
+      <c r="A17" s="32">
         <v>173</v>
       </c>
       <c r="B17" s="12" t="s">
@@ -2431,14 +2432,14 @@
       <c r="J17" s="13">
         <v>364759.58</v>
       </c>
-      <c r="K17" s="45">
+      <c r="K17" s="19">
         <v>1179616.1299999999</v>
       </c>
       <c r="L17" s="14"/>
-      <c r="M17" s="45"/>
+      <c r="M17" s="19"/>
     </row>
     <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="25"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="12"/>
       <c r="C18" s="9"/>
       <c r="D18" s="13"/>
@@ -2448,12 +2449,12 @@
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="J18" s="13"/>
-      <c r="K18" s="45"/>
+      <c r="K18" s="19"/>
       <c r="L18" s="14"/>
-      <c r="M18" s="45"/>
+      <c r="M18" s="19"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="26"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="12"/>
       <c r="C19" s="9"/>
       <c r="D19" s="13"/>
@@ -2463,9 +2464,9 @@
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="13"/>
-      <c r="K19" s="45"/>
+      <c r="K19" s="19"/>
       <c r="L19" s="14"/>
-      <c r="M19" s="45"/>
+      <c r="M19" s="19"/>
     </row>
     <row r="20" spans="1:13" ht="45" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
@@ -2498,11 +2499,11 @@
       <c r="J20" s="13">
         <v>361809.32</v>
       </c>
-      <c r="K20" s="45">
+      <c r="K20" s="19">
         <v>1179455.1499999999</v>
       </c>
       <c r="L20" s="14"/>
-      <c r="M20" s="45"/>
+      <c r="M20" s="19"/>
     </row>
     <row r="21" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
@@ -2535,182 +2536,182 @@
       <c r="J21" s="13">
         <v>369928.32</v>
       </c>
-      <c r="K21" s="45">
+      <c r="K21" s="19">
         <v>1131505.3999999999</v>
       </c>
       <c r="L21" s="14"/>
-      <c r="M21" s="45"/>
+      <c r="M21" s="19"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="24">
+      <c r="A22" s="32">
         <v>245</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="G22" s="18" t="s">
+      <c r="G22" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="H22" s="18" t="s">
+      <c r="H22" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="I22" s="18" t="s">
+      <c r="I22" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="J22" s="18">
+      <c r="J22" s="26">
         <v>396950.45</v>
       </c>
-      <c r="K22" s="46">
+      <c r="K22" s="29">
         <v>1156424.8500000001</v>
       </c>
-      <c r="L22" s="18"/>
-      <c r="M22" s="46"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="29"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="25"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="47"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="30"/>
     </row>
     <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="26"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="37"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="31"/>
     </row>
     <row r="25" spans="1:13" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="24">
+      <c r="A25" s="32">
         <v>251</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="27" t="s">
+      <c r="C25" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F25" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="G25" s="18" t="s">
+      <c r="G25" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="H25" s="18" t="s">
+      <c r="H25" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I25" s="18" t="s">
+      <c r="I25" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="J25" s="18">
+      <c r="J25" s="26">
         <v>396594.88</v>
       </c>
-      <c r="K25" s="46">
+      <c r="K25" s="29">
         <v>1153570.56</v>
       </c>
-      <c r="L25" s="18"/>
-      <c r="M25" s="46"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="29"/>
     </row>
     <row r="26" spans="1:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="26"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="37"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="31"/>
     </row>
     <row r="27" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="24">
+      <c r="A27" s="32">
         <v>253</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F27" s="18" t="s">
+      <c r="F27" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="G27" s="18" t="s">
+      <c r="G27" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="H27" s="18" t="s">
+      <c r="H27" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I27" s="18" t="s">
+      <c r="I27" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="J27" s="18">
+      <c r="J27" s="26">
         <v>398345.06</v>
       </c>
-      <c r="K27" s="46">
+      <c r="K27" s="29">
         <v>1151149.76</v>
       </c>
-      <c r="L27" s="18"/>
-      <c r="M27" s="46"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="29"/>
     </row>
     <row r="28" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="26"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="37"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="31"/>
     </row>
     <row r="29" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
@@ -2743,93 +2744,93 @@
       <c r="J29" s="13">
         <v>391394.81</v>
       </c>
-      <c r="K29" s="45">
+      <c r="K29" s="19">
         <v>1149398.55</v>
       </c>
       <c r="L29" s="14"/>
-      <c r="M29" s="45"/>
+      <c r="M29" s="19"/>
     </row>
     <row r="30" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="24">
+      <c r="A30" s="32">
         <v>259</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="E30" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="18" t="s">
+      <c r="F30" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="G30" s="18" t="s">
+      <c r="G30" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="H30" s="18" t="s">
+      <c r="H30" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="I30" s="18" t="s">
+      <c r="I30" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="J30" s="18">
+      <c r="J30" s="26">
         <v>391544.59</v>
       </c>
-      <c r="K30" s="46">
+      <c r="K30" s="29">
         <v>1147203.07</v>
       </c>
-      <c r="L30" s="18"/>
-      <c r="M30" s="46"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="29"/>
     </row>
     <row r="31" spans="1:13" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="25"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="47"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="30"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="25"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="47"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="30"/>
     </row>
     <row r="33" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="26"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="37"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="31"/>
     </row>
     <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11">
@@ -2862,160 +2863,160 @@
       <c r="J34" s="13">
         <v>406711.47</v>
       </c>
-      <c r="K34" s="45">
+      <c r="K34" s="19">
         <v>1145823.3899999999</v>
       </c>
       <c r="L34" s="14"/>
-      <c r="M34" s="45"/>
+      <c r="M34" s="19"/>
     </row>
     <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="24">
+      <c r="A35" s="32">
         <v>261</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="D35" s="18" t="s">
+      <c r="D35" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="E35" s="18" t="s">
+      <c r="E35" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F35" s="18" t="s">
+      <c r="F35" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="G35" s="18" t="s">
+      <c r="G35" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="H35" s="18" t="s">
+      <c r="H35" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="I35" s="18" t="s">
+      <c r="I35" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="J35" s="18">
+      <c r="J35" s="26">
         <v>397184.79</v>
       </c>
-      <c r="K35" s="46">
+      <c r="K35" s="29">
         <v>1168073.6399999999</v>
       </c>
-      <c r="L35" s="18"/>
-      <c r="M35" s="46"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="29"/>
     </row>
     <row r="36" spans="1:13" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="25"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="47"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="47"/>
+      <c r="A36" s="33"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="30"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="25"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="47"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="47"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="30"/>
     </row>
     <row r="38" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="26"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="37"/>
+      <c r="A38" s="34"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="28"/>
+      <c r="M38" s="31"/>
     </row>
     <row r="39" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="24">
+      <c r="A39" s="32">
         <v>262</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C39" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="D39" s="18" t="s">
+      <c r="D39" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="E39" s="18" t="s">
+      <c r="E39" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F39" s="18" t="s">
+      <c r="F39" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="G39" s="18" t="s">
+      <c r="G39" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="H39" s="18" t="s">
+      <c r="H39" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="I39" s="18" t="s">
+      <c r="I39" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="J39" s="18">
+      <c r="J39" s="26">
         <v>393932.35</v>
       </c>
-      <c r="K39" s="46">
+      <c r="K39" s="29">
         <v>1167958.6200000001</v>
       </c>
-      <c r="L39" s="18"/>
-      <c r="M39" s="46"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="29"/>
     </row>
     <row r="40" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="25"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="47"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="47"/>
+      <c r="A40" s="33"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="30"/>
     </row>
     <row r="41" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="26"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="37"/>
+      <c r="A41" s="34"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="31"/>
     </row>
     <row r="42" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11">
@@ -3048,11 +3049,11 @@
       <c r="J42" s="13">
         <v>390752.69</v>
       </c>
-      <c r="K42" s="45">
+      <c r="K42" s="19">
         <v>1167903.8799999999</v>
       </c>
       <c r="L42" s="14"/>
-      <c r="M42" s="45"/>
+      <c r="M42" s="19"/>
     </row>
     <row r="43" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A43" s="11">
@@ -3085,11 +3086,11 @@
       <c r="J43" s="13">
         <v>407213.57</v>
       </c>
-      <c r="K43" s="45">
+      <c r="K43" s="19">
         <v>1157069.19</v>
       </c>
       <c r="L43" s="14"/>
-      <c r="M43" s="45"/>
+      <c r="M43" s="19"/>
     </row>
     <row r="44" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="11">
@@ -3122,11 +3123,11 @@
       <c r="J44" s="13">
         <v>405083.62</v>
       </c>
-      <c r="K44" s="45">
+      <c r="K44" s="19">
         <v>1144406.08</v>
       </c>
       <c r="L44" s="14"/>
-      <c r="M44" s="45"/>
+      <c r="M44" s="19"/>
     </row>
     <row r="45" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="11">
@@ -3159,78 +3160,78 @@
       <c r="J45" s="13">
         <v>401743.3</v>
       </c>
-      <c r="K45" s="45">
+      <c r="K45" s="19">
         <v>1147749.5900000001</v>
       </c>
       <c r="L45" s="14"/>
-      <c r="M45" s="45"/>
+      <c r="M45" s="19"/>
     </row>
     <row r="46" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="24">
+      <c r="A46" s="32">
         <v>625</v>
       </c>
-      <c r="B46" s="21" t="s">
+      <c r="B46" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="C46" s="27" t="s">
+      <c r="C46" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="D46" s="18" t="s">
+      <c r="D46" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="E46" s="18" t="s">
+      <c r="E46" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="F46" s="18" t="s">
+      <c r="F46" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="G46" s="18" t="s">
+      <c r="G46" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="H46" s="18" t="s">
+      <c r="H46" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="I46" s="18" t="s">
+      <c r="I46" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="J46" s="18">
+      <c r="J46" s="26">
         <v>427371.4</v>
       </c>
-      <c r="K46" s="46">
+      <c r="K46" s="29">
         <v>1124783.69</v>
       </c>
-      <c r="L46" s="18"/>
-      <c r="M46" s="46"/>
+      <c r="L46" s="26"/>
+      <c r="M46" s="29"/>
     </row>
     <row r="47" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="25"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="19"/>
-      <c r="K47" s="47"/>
-      <c r="L47" s="19"/>
-      <c r="M47" s="47"/>
+      <c r="A47" s="33"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="30"/>
     </row>
     <row r="48" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="26"/>
-      <c r="B48" s="23"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="37"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="37"/>
+      <c r="A48" s="34"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="31"/>
     </row>
     <row r="49" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="11">
@@ -3263,14 +3264,14 @@
       <c r="J49" s="13">
         <v>358402.44</v>
       </c>
-      <c r="K49" s="45">
+      <c r="K49" s="19">
         <v>1163138.55</v>
       </c>
       <c r="L49" s="14"/>
-      <c r="M49" s="45"/>
+      <c r="M49" s="19"/>
     </row>
     <row r="50" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="24">
+      <c r="A50" s="32">
         <v>157</v>
       </c>
       <c r="B50" s="12" t="s">
@@ -3300,14 +3301,14 @@
       <c r="J50" s="13">
         <v>369724.8</v>
       </c>
-      <c r="K50" s="45">
+      <c r="K50" s="19">
         <v>1164156.55</v>
       </c>
       <c r="L50" s="14"/>
-      <c r="M50" s="45"/>
+      <c r="M50" s="19"/>
     </row>
     <row r="51" spans="1:13" ht="0.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="26"/>
+      <c r="A51" s="34"/>
       <c r="B51" s="12"/>
       <c r="C51" s="9"/>
       <c r="D51" s="13"/>
@@ -3317,106 +3318,106 @@
       <c r="H51" s="13"/>
       <c r="I51" s="13"/>
       <c r="J51" s="13"/>
-      <c r="K51" s="45"/>
+      <c r="K51" s="19"/>
       <c r="L51" s="14"/>
-      <c r="M51" s="45"/>
+      <c r="M51" s="19"/>
     </row>
     <row r="52" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="24">
+      <c r="A52" s="32">
         <v>160</v>
       </c>
-      <c r="B52" s="21" t="s">
+      <c r="B52" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="C52" s="27" t="s">
+      <c r="C52" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="D52" s="18" t="s">
+      <c r="D52" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="E52" s="18" t="s">
+      <c r="E52" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F52" s="18" t="s">
+      <c r="F52" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="G52" s="18" t="s">
+      <c r="G52" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="H52" s="18" t="s">
+      <c r="H52" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="I52" s="18" t="s">
+      <c r="I52" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="J52" s="18">
+      <c r="J52" s="26">
         <v>352024.2</v>
       </c>
-      <c r="K52" s="46">
+      <c r="K52" s="29">
         <v>1166234.22</v>
       </c>
-      <c r="L52" s="18"/>
-      <c r="M52" s="46"/>
+      <c r="L52" s="26"/>
+      <c r="M52" s="29"/>
     </row>
     <row r="53" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="25"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
-      <c r="K53" s="47"/>
-      <c r="L53" s="19"/>
-      <c r="M53" s="47"/>
+      <c r="A53" s="33"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="30"/>
+      <c r="L53" s="27"/>
+      <c r="M53" s="30"/>
     </row>
     <row r="54" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="25"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="47"/>
-      <c r="L54" s="19"/>
-      <c r="M54" s="47"/>
+      <c r="A54" s="33"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="30"/>
+      <c r="L54" s="27"/>
+      <c r="M54" s="30"/>
     </row>
     <row r="55" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="25"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="47"/>
-      <c r="L55" s="19"/>
-      <c r="M55" s="47"/>
+      <c r="A55" s="33"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="27"/>
+      <c r="K55" s="30"/>
+      <c r="L55" s="27"/>
+      <c r="M55" s="30"/>
     </row>
     <row r="56" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="25"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="20"/>
-      <c r="K56" s="37"/>
-      <c r="L56" s="20"/>
-      <c r="M56" s="37"/>
+      <c r="A56" s="33"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="31"/>
+      <c r="L56" s="28"/>
+      <c r="M56" s="31"/>
     </row>
     <row r="57" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="11">
@@ -3449,11 +3450,11 @@
       <c r="J57" s="13">
         <v>373148.14</v>
       </c>
-      <c r="K57" s="45">
+      <c r="K57" s="19">
         <v>1180087.25</v>
       </c>
       <c r="L57" s="14"/>
-      <c r="M57" s="45"/>
+      <c r="M57" s="19"/>
     </row>
     <row r="58" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="11">
@@ -3486,11 +3487,11 @@
       <c r="J58" s="13">
         <v>380803.43</v>
       </c>
-      <c r="K58" s="45">
+      <c r="K58" s="19">
         <v>1181265.0900000001</v>
       </c>
       <c r="L58" s="14"/>
-      <c r="M58" s="45"/>
+      <c r="M58" s="19"/>
     </row>
     <row r="59" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="11">
@@ -3523,14 +3524,14 @@
       <c r="J59" s="13">
         <v>366647.17</v>
       </c>
-      <c r="K59" s="45">
+      <c r="K59" s="19">
         <v>1190101.44</v>
       </c>
       <c r="L59" s="14"/>
-      <c r="M59" s="45"/>
+      <c r="M59" s="19"/>
     </row>
     <row r="60" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="24">
+      <c r="A60" s="32">
         <v>175</v>
       </c>
       <c r="B60" s="12" t="s">
@@ -3560,14 +3561,14 @@
       <c r="J60" s="13">
         <v>351157.1</v>
       </c>
-      <c r="K60" s="45">
+      <c r="K60" s="19">
         <v>1155491.93</v>
       </c>
       <c r="L60" s="14"/>
-      <c r="M60" s="45"/>
+      <c r="M60" s="19"/>
     </row>
     <row r="61" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="26"/>
+      <c r="A61" s="34"/>
       <c r="B61" s="12"/>
       <c r="C61" s="9"/>
       <c r="D61" s="13"/>
@@ -3577,9 +3578,9 @@
       <c r="H61" s="13"/>
       <c r="I61" s="13"/>
       <c r="J61" s="13"/>
-      <c r="K61" s="45"/>
+      <c r="K61" s="19"/>
       <c r="L61" s="14"/>
-      <c r="M61" s="45"/>
+      <c r="M61" s="19"/>
     </row>
     <row r="62" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="11">
@@ -3612,11 +3613,11 @@
       <c r="J62" s="13">
         <v>385564.38</v>
       </c>
-      <c r="K62" s="45">
+      <c r="K62" s="19">
         <v>1140779.74</v>
       </c>
       <c r="L62" s="14"/>
-      <c r="M62" s="45"/>
+      <c r="M62" s="19"/>
     </row>
     <row r="63" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="11">
@@ -3649,11 +3650,11 @@
       <c r="J63" s="13">
         <v>386121.51</v>
       </c>
-      <c r="K63" s="45">
+      <c r="K63" s="19">
         <v>1148106.27</v>
       </c>
       <c r="L63" s="14"/>
-      <c r="M63" s="45"/>
+      <c r="M63" s="19"/>
     </row>
     <row r="64" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="11">
@@ -3686,257 +3687,257 @@
       <c r="J64" s="13">
         <v>378218.75</v>
       </c>
-      <c r="K64" s="45">
+      <c r="K64" s="19">
         <v>1131002.9099999999</v>
       </c>
       <c r="L64" s="14"/>
-      <c r="M64" s="45"/>
+      <c r="M64" s="19"/>
     </row>
     <row r="65" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="24">
+      <c r="A65" s="32">
         <v>226</v>
       </c>
-      <c r="B65" s="21" t="s">
+      <c r="B65" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="C65" s="27" t="s">
+      <c r="C65" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="D65" s="18" t="s">
+      <c r="D65" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="E65" s="18" t="s">
+      <c r="E65" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F65" s="18" t="s">
+      <c r="F65" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="G65" s="18" t="s">
+      <c r="G65" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="H65" s="18" t="s">
+      <c r="H65" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="I65" s="18" t="s">
+      <c r="I65" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="J65" s="18">
+      <c r="J65" s="26">
         <v>398304.09</v>
       </c>
-      <c r="K65" s="46">
+      <c r="K65" s="29">
         <v>1139191.4099999999</v>
       </c>
-      <c r="L65" s="18"/>
-      <c r="M65" s="46"/>
+      <c r="L65" s="26"/>
+      <c r="M65" s="29"/>
     </row>
     <row r="66" spans="1:13" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="25"/>
-      <c r="B66" s="22"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="19"/>
-      <c r="K66" s="47"/>
-      <c r="L66" s="19"/>
-      <c r="M66" s="47"/>
+      <c r="A66" s="33"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="27"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="27"/>
+      <c r="I66" s="27"/>
+      <c r="J66" s="27"/>
+      <c r="K66" s="30"/>
+      <c r="L66" s="27"/>
+      <c r="M66" s="30"/>
     </row>
     <row r="67" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="26"/>
-      <c r="B67" s="23"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="20"/>
-      <c r="I67" s="20"/>
-      <c r="J67" s="20"/>
-      <c r="K67" s="37"/>
-      <c r="L67" s="20"/>
-      <c r="M67" s="37"/>
+      <c r="A67" s="34"/>
+      <c r="B67" s="37"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="28"/>
+      <c r="J67" s="28"/>
+      <c r="K67" s="31"/>
+      <c r="L67" s="28"/>
+      <c r="M67" s="31"/>
     </row>
     <row r="68" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="24">
+      <c r="A68" s="32">
         <v>231</v>
       </c>
-      <c r="B68" s="21" t="s">
+      <c r="B68" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="C68" s="27" t="s">
+      <c r="C68" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="D68" s="18" t="s">
+      <c r="D68" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="E68" s="18" t="s">
+      <c r="E68" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F68" s="18" t="s">
+      <c r="F68" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="G68" s="18" t="s">
+      <c r="G68" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="H68" s="18" t="s">
+      <c r="H68" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="I68" s="18" t="s">
+      <c r="I68" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="J68" s="18">
+      <c r="J68" s="26">
         <v>398803.29</v>
       </c>
-      <c r="K68" s="46">
+      <c r="K68" s="29">
         <v>1141740.8799999999</v>
       </c>
-      <c r="L68" s="18"/>
-      <c r="M68" s="46"/>
+      <c r="L68" s="26"/>
+      <c r="M68" s="29"/>
     </row>
     <row r="69" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="25"/>
-      <c r="B69" s="22"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="19"/>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="19"/>
-      <c r="K69" s="47"/>
-      <c r="L69" s="19"/>
-      <c r="M69" s="47"/>
+      <c r="A69" s="33"/>
+      <c r="B69" s="40"/>
+      <c r="C69" s="27"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="27"/>
+      <c r="F69" s="27"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="27"/>
+      <c r="I69" s="27"/>
+      <c r="J69" s="27"/>
+      <c r="K69" s="30"/>
+      <c r="L69" s="27"/>
+      <c r="M69" s="30"/>
     </row>
     <row r="70" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="25"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="19"/>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="19"/>
-      <c r="K70" s="47"/>
-      <c r="L70" s="19"/>
-      <c r="M70" s="47"/>
+      <c r="A70" s="33"/>
+      <c r="B70" s="40"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="27"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="27"/>
+      <c r="J70" s="27"/>
+      <c r="K70" s="30"/>
+      <c r="L70" s="27"/>
+      <c r="M70" s="30"/>
     </row>
     <row r="71" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="26"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="20"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="20"/>
-      <c r="I71" s="20"/>
-      <c r="J71" s="20"/>
-      <c r="K71" s="37"/>
-      <c r="L71" s="20"/>
-      <c r="M71" s="37"/>
+      <c r="A71" s="34"/>
+      <c r="B71" s="37"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="28"/>
+      <c r="K71" s="31"/>
+      <c r="L71" s="28"/>
+      <c r="M71" s="31"/>
     </row>
     <row r="72" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="24">
+      <c r="A72" s="32">
         <v>234</v>
       </c>
-      <c r="B72" s="21" t="s">
+      <c r="B72" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="C72" s="27" t="s">
+      <c r="C72" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="D72" s="18" t="s">
+      <c r="D72" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="E72" s="18" t="s">
+      <c r="E72" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F72" s="18" t="s">
+      <c r="F72" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="G72" s="18" t="s">
+      <c r="G72" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="H72" s="18" t="s">
+      <c r="H72" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="I72" s="18" t="s">
+      <c r="I72" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="J72" s="18">
+      <c r="J72" s="26">
         <v>397188.78</v>
       </c>
-      <c r="K72" s="46">
+      <c r="K72" s="29">
         <v>1126217.6599999999</v>
       </c>
-      <c r="L72" s="18"/>
-      <c r="M72" s="46"/>
+      <c r="L72" s="26"/>
+      <c r="M72" s="29"/>
     </row>
     <row r="73" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="25"/>
-      <c r="B73" s="22"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="19"/>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="19"/>
-      <c r="K73" s="47"/>
-      <c r="L73" s="19"/>
-      <c r="M73" s="47"/>
+      <c r="A73" s="33"/>
+      <c r="B73" s="40"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="27"/>
+      <c r="I73" s="27"/>
+      <c r="J73" s="27"/>
+      <c r="K73" s="30"/>
+      <c r="L73" s="27"/>
+      <c r="M73" s="30"/>
     </row>
     <row r="74" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="25"/>
-      <c r="B74" s="22"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="19"/>
-      <c r="G74" s="19"/>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="19"/>
-      <c r="K74" s="47"/>
-      <c r="L74" s="19"/>
-      <c r="M74" s="47"/>
+      <c r="A74" s="33"/>
+      <c r="B74" s="40"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="27"/>
+      <c r="I74" s="27"/>
+      <c r="J74" s="27"/>
+      <c r="K74" s="30"/>
+      <c r="L74" s="27"/>
+      <c r="M74" s="30"/>
     </row>
     <row r="75" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="25"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19"/>
-      <c r="F75" s="19"/>
-      <c r="G75" s="19"/>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="19"/>
-      <c r="K75" s="47"/>
-      <c r="L75" s="19"/>
-      <c r="M75" s="47"/>
+      <c r="A75" s="33"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="27"/>
+      <c r="I75" s="27"/>
+      <c r="J75" s="27"/>
+      <c r="K75" s="30"/>
+      <c r="L75" s="27"/>
+      <c r="M75" s="30"/>
     </row>
     <row r="76" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="26"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="20"/>
-      <c r="G76" s="20"/>
-      <c r="H76" s="20"/>
-      <c r="I76" s="20"/>
-      <c r="J76" s="20"/>
-      <c r="K76" s="37"/>
-      <c r="L76" s="20"/>
-      <c r="M76" s="37"/>
+      <c r="A76" s="34"/>
+      <c r="B76" s="37"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="28"/>
+      <c r="F76" s="28"/>
+      <c r="G76" s="28"/>
+      <c r="H76" s="28"/>
+      <c r="I76" s="28"/>
+      <c r="J76" s="28"/>
+      <c r="K76" s="31"/>
+      <c r="L76" s="28"/>
+      <c r="M76" s="31"/>
     </row>
     <row r="77" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="11">
@@ -3969,63 +3970,63 @@
       <c r="J77" s="13">
         <v>406228.01</v>
       </c>
-      <c r="K77" s="45">
+      <c r="K77" s="19">
         <v>1142143</v>
       </c>
       <c r="L77" s="14"/>
-      <c r="M77" s="45"/>
+      <c r="M77" s="19"/>
     </row>
     <row r="78" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="24">
+      <c r="A78" s="32">
         <v>241</v>
       </c>
-      <c r="B78" s="21" t="s">
+      <c r="B78" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="C78" s="27" t="s">
+      <c r="C78" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="D78" s="18" t="s">
+      <c r="D78" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="E78" s="18" t="s">
+      <c r="E78" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F78" s="18" t="s">
+      <c r="F78" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="G78" s="18" t="s">
+      <c r="G78" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="H78" s="18" t="s">
+      <c r="H78" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="I78" s="18" t="s">
+      <c r="I78" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="J78" s="18">
+      <c r="J78" s="26">
         <v>379592.78</v>
       </c>
-      <c r="K78" s="46">
+      <c r="K78" s="29">
         <v>1135239.01</v>
       </c>
-      <c r="L78" s="18"/>
-      <c r="M78" s="46"/>
+      <c r="L78" s="26"/>
+      <c r="M78" s="29"/>
     </row>
     <row r="79" spans="1:13" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="26"/>
-      <c r="B79" s="23"/>
-      <c r="C79" s="20"/>
-      <c r="D79" s="20"/>
-      <c r="E79" s="20"/>
-      <c r="F79" s="20"/>
-      <c r="G79" s="20"/>
-      <c r="H79" s="20"/>
-      <c r="I79" s="20"/>
-      <c r="J79" s="20"/>
-      <c r="K79" s="37"/>
-      <c r="L79" s="20"/>
-      <c r="M79" s="37"/>
+      <c r="A79" s="34"/>
+      <c r="B79" s="37"/>
+      <c r="C79" s="28"/>
+      <c r="D79" s="28"/>
+      <c r="E79" s="28"/>
+      <c r="F79" s="28"/>
+      <c r="G79" s="28"/>
+      <c r="H79" s="28"/>
+      <c r="I79" s="28"/>
+      <c r="J79" s="28"/>
+      <c r="K79" s="31"/>
+      <c r="L79" s="28"/>
+      <c r="M79" s="31"/>
     </row>
     <row r="80" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="11">
@@ -4058,250 +4059,250 @@
       <c r="J80" s="13">
         <v>394007.28</v>
       </c>
-      <c r="K80" s="45">
+      <c r="K80" s="19">
         <v>1148810.72</v>
       </c>
       <c r="L80" s="14"/>
-      <c r="M80" s="45"/>
+      <c r="M80" s="19"/>
     </row>
     <row r="81" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="24">
+      <c r="A81" s="32">
         <v>264</v>
       </c>
-      <c r="B81" s="21" t="s">
+      <c r="B81" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="C81" s="27" t="s">
+      <c r="C81" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="D81" s="18" t="s">
+      <c r="D81" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="E81" s="18" t="s">
+      <c r="E81" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F81" s="18" t="s">
+      <c r="F81" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="G81" s="18" t="s">
+      <c r="G81" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="H81" s="18" t="s">
+      <c r="H81" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="I81" s="18" t="s">
+      <c r="I81" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="J81" s="18">
+      <c r="J81" s="26">
         <v>401790.04</v>
       </c>
-      <c r="K81" s="46">
+      <c r="K81" s="29">
         <v>1166131.73</v>
       </c>
-      <c r="L81" s="18"/>
-      <c r="M81" s="46"/>
+      <c r="L81" s="26"/>
+      <c r="M81" s="29"/>
     </row>
     <row r="82" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="25"/>
-      <c r="B82" s="22"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="19"/>
-      <c r="E82" s="19"/>
-      <c r="F82" s="19"/>
-      <c r="G82" s="19"/>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="19"/>
-      <c r="K82" s="47"/>
-      <c r="L82" s="19"/>
-      <c r="M82" s="47"/>
+      <c r="A82" s="33"/>
+      <c r="B82" s="40"/>
+      <c r="C82" s="27"/>
+      <c r="D82" s="27"/>
+      <c r="E82" s="27"/>
+      <c r="F82" s="27"/>
+      <c r="G82" s="27"/>
+      <c r="H82" s="27"/>
+      <c r="I82" s="27"/>
+      <c r="J82" s="27"/>
+      <c r="K82" s="30"/>
+      <c r="L82" s="27"/>
+      <c r="M82" s="30"/>
     </row>
     <row r="83" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="25"/>
-      <c r="B83" s="22"/>
-      <c r="C83" s="19"/>
-      <c r="D83" s="19"/>
-      <c r="E83" s="19"/>
-      <c r="F83" s="19"/>
-      <c r="G83" s="19"/>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="19"/>
-      <c r="K83" s="47"/>
-      <c r="L83" s="19"/>
-      <c r="M83" s="47"/>
+      <c r="A83" s="33"/>
+      <c r="B83" s="40"/>
+      <c r="C83" s="27"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="27"/>
+      <c r="F83" s="27"/>
+      <c r="G83" s="27"/>
+      <c r="H83" s="27"/>
+      <c r="I83" s="27"/>
+      <c r="J83" s="27"/>
+      <c r="K83" s="30"/>
+      <c r="L83" s="27"/>
+      <c r="M83" s="30"/>
     </row>
     <row r="84" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="25"/>
-      <c r="B84" s="22"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="19"/>
-      <c r="E84" s="19"/>
-      <c r="F84" s="19"/>
-      <c r="G84" s="19"/>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="19"/>
-      <c r="K84" s="47"/>
-      <c r="L84" s="19"/>
-      <c r="M84" s="47"/>
+      <c r="A84" s="33"/>
+      <c r="B84" s="40"/>
+      <c r="C84" s="27"/>
+      <c r="D84" s="27"/>
+      <c r="E84" s="27"/>
+      <c r="F84" s="27"/>
+      <c r="G84" s="27"/>
+      <c r="H84" s="27"/>
+      <c r="I84" s="27"/>
+      <c r="J84" s="27"/>
+      <c r="K84" s="30"/>
+      <c r="L84" s="27"/>
+      <c r="M84" s="30"/>
     </row>
     <row r="85" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="25"/>
-      <c r="B85" s="22"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="19"/>
-      <c r="E85" s="19"/>
-      <c r="F85" s="19"/>
-      <c r="G85" s="19"/>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="19"/>
-      <c r="K85" s="47"/>
-      <c r="L85" s="19"/>
-      <c r="M85" s="47"/>
+      <c r="A85" s="33"/>
+      <c r="B85" s="40"/>
+      <c r="C85" s="27"/>
+      <c r="D85" s="27"/>
+      <c r="E85" s="27"/>
+      <c r="F85" s="27"/>
+      <c r="G85" s="27"/>
+      <c r="H85" s="27"/>
+      <c r="I85" s="27"/>
+      <c r="J85" s="27"/>
+      <c r="K85" s="30"/>
+      <c r="L85" s="27"/>
+      <c r="M85" s="30"/>
     </row>
     <row r="86" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="25"/>
-      <c r="B86" s="22"/>
-      <c r="C86" s="19"/>
-      <c r="D86" s="19"/>
-      <c r="E86" s="19"/>
-      <c r="F86" s="19"/>
-      <c r="G86" s="19"/>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="19"/>
-      <c r="K86" s="47"/>
-      <c r="L86" s="19"/>
-      <c r="M86" s="47"/>
+      <c r="A86" s="33"/>
+      <c r="B86" s="40"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="27"/>
+      <c r="E86" s="27"/>
+      <c r="F86" s="27"/>
+      <c r="G86" s="27"/>
+      <c r="H86" s="27"/>
+      <c r="I86" s="27"/>
+      <c r="J86" s="27"/>
+      <c r="K86" s="30"/>
+      <c r="L86" s="27"/>
+      <c r="M86" s="30"/>
     </row>
     <row r="87" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="25"/>
-      <c r="B87" s="22"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="19"/>
-      <c r="E87" s="19"/>
-      <c r="F87" s="19"/>
-      <c r="G87" s="19"/>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="19"/>
-      <c r="K87" s="47"/>
-      <c r="L87" s="19"/>
-      <c r="M87" s="47"/>
+      <c r="A87" s="33"/>
+      <c r="B87" s="40"/>
+      <c r="C87" s="27"/>
+      <c r="D87" s="27"/>
+      <c r="E87" s="27"/>
+      <c r="F87" s="27"/>
+      <c r="G87" s="27"/>
+      <c r="H87" s="27"/>
+      <c r="I87" s="27"/>
+      <c r="J87" s="27"/>
+      <c r="K87" s="30"/>
+      <c r="L87" s="27"/>
+      <c r="M87" s="30"/>
     </row>
     <row r="88" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="25"/>
-      <c r="B88" s="22"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="19"/>
-      <c r="E88" s="19"/>
-      <c r="F88" s="19"/>
-      <c r="G88" s="19"/>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="19"/>
-      <c r="K88" s="47"/>
-      <c r="L88" s="19"/>
-      <c r="M88" s="47"/>
+      <c r="A88" s="33"/>
+      <c r="B88" s="40"/>
+      <c r="C88" s="27"/>
+      <c r="D88" s="27"/>
+      <c r="E88" s="27"/>
+      <c r="F88" s="27"/>
+      <c r="G88" s="27"/>
+      <c r="H88" s="27"/>
+      <c r="I88" s="27"/>
+      <c r="J88" s="27"/>
+      <c r="K88" s="30"/>
+      <c r="L88" s="27"/>
+      <c r="M88" s="30"/>
     </row>
     <row r="89" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="25"/>
-      <c r="B89" s="22"/>
-      <c r="C89" s="19"/>
-      <c r="D89" s="19"/>
-      <c r="E89" s="19"/>
-      <c r="F89" s="19"/>
-      <c r="G89" s="19"/>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="19"/>
-      <c r="K89" s="47"/>
-      <c r="L89" s="19"/>
-      <c r="M89" s="47"/>
+      <c r="A89" s="33"/>
+      <c r="B89" s="40"/>
+      <c r="C89" s="27"/>
+      <c r="D89" s="27"/>
+      <c r="E89" s="27"/>
+      <c r="F89" s="27"/>
+      <c r="G89" s="27"/>
+      <c r="H89" s="27"/>
+      <c r="I89" s="27"/>
+      <c r="J89" s="27"/>
+      <c r="K89" s="30"/>
+      <c r="L89" s="27"/>
+      <c r="M89" s="30"/>
     </row>
     <row r="90" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="25"/>
-      <c r="B90" s="22"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="19"/>
-      <c r="E90" s="19"/>
-      <c r="F90" s="19"/>
-      <c r="G90" s="19"/>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="19"/>
-      <c r="K90" s="47"/>
-      <c r="L90" s="19"/>
-      <c r="M90" s="47"/>
+      <c r="A90" s="33"/>
+      <c r="B90" s="40"/>
+      <c r="C90" s="27"/>
+      <c r="D90" s="27"/>
+      <c r="E90" s="27"/>
+      <c r="F90" s="27"/>
+      <c r="G90" s="27"/>
+      <c r="H90" s="27"/>
+      <c r="I90" s="27"/>
+      <c r="J90" s="27"/>
+      <c r="K90" s="30"/>
+      <c r="L90" s="27"/>
+      <c r="M90" s="30"/>
     </row>
     <row r="91" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="26"/>
-      <c r="B91" s="23"/>
-      <c r="C91" s="20"/>
-      <c r="D91" s="20"/>
-      <c r="E91" s="20"/>
-      <c r="F91" s="20"/>
-      <c r="G91" s="20"/>
-      <c r="H91" s="20"/>
-      <c r="I91" s="20"/>
-      <c r="J91" s="20"/>
-      <c r="K91" s="37"/>
-      <c r="L91" s="20"/>
-      <c r="M91" s="37"/>
+      <c r="A91" s="34"/>
+      <c r="B91" s="37"/>
+      <c r="C91" s="28"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="28"/>
+      <c r="F91" s="28"/>
+      <c r="G91" s="28"/>
+      <c r="H91" s="28"/>
+      <c r="I91" s="28"/>
+      <c r="J91" s="28"/>
+      <c r="K91" s="31"/>
+      <c r="L91" s="28"/>
+      <c r="M91" s="31"/>
     </row>
     <row r="92" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="24">
+      <c r="A92" s="32">
         <v>4315</v>
       </c>
-      <c r="B92" s="21" t="s">
+      <c r="B92" s="36" t="s">
         <v>193</v>
       </c>
       <c r="C92" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="D92" s="18" t="s">
+      <c r="D92" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="E92" s="18" t="s">
+      <c r="E92" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F92" s="18" t="s">
+      <c r="F92" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="G92" s="18" t="s">
+      <c r="G92" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="H92" s="18" t="s">
+      <c r="H92" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="I92" s="18" t="s">
+      <c r="I92" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="J92" s="18">
+      <c r="J92" s="26">
         <v>406392.7</v>
       </c>
-      <c r="K92" s="46">
+      <c r="K92" s="29">
         <v>1143935.33</v>
       </c>
-      <c r="L92" s="18"/>
-      <c r="M92" s="46"/>
+      <c r="L92" s="26"/>
+      <c r="M92" s="29"/>
     </row>
     <row r="93" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="26"/>
-      <c r="B93" s="23"/>
+      <c r="A93" s="34"/>
+      <c r="B93" s="37"/>
       <c r="C93" s="13"/>
-      <c r="D93" s="20"/>
-      <c r="E93" s="20"/>
-      <c r="F93" s="20"/>
-      <c r="G93" s="20"/>
-      <c r="H93" s="20"/>
-      <c r="I93" s="20"/>
-      <c r="J93" s="20"/>
-      <c r="K93" s="37"/>
-      <c r="L93" s="20"/>
-      <c r="M93" s="37"/>
+      <c r="D93" s="28"/>
+      <c r="E93" s="28"/>
+      <c r="F93" s="28"/>
+      <c r="G93" s="28"/>
+      <c r="H93" s="28"/>
+      <c r="I93" s="28"/>
+      <c r="J93" s="28"/>
+      <c r="K93" s="31"/>
+      <c r="L93" s="28"/>
+      <c r="M93" s="31"/>
     </row>
     <row r="94" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="11">
@@ -4334,11 +4335,11 @@
       <c r="J94" s="13">
         <v>321899.09999999998</v>
       </c>
-      <c r="K94" s="45">
+      <c r="K94" s="19">
         <v>1184576.03</v>
       </c>
       <c r="L94" s="14"/>
-      <c r="M94" s="45"/>
+      <c r="M94" s="19"/>
     </row>
     <row r="95" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="11">
@@ -4371,249 +4372,249 @@
       <c r="J95" s="13">
         <v>408339.20000000001</v>
       </c>
-      <c r="K95" s="45">
+      <c r="K95" s="19">
         <v>1142781.77</v>
       </c>
       <c r="L95" s="14"/>
-      <c r="M95" s="45"/>
+      <c r="M95" s="19"/>
     </row>
     <row r="96" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="24">
+      <c r="A96" s="32">
         <v>220</v>
       </c>
-      <c r="B96" s="21" t="s">
+      <c r="B96" s="36" t="s">
         <v>207</v>
       </c>
-      <c r="C96" s="27" t="s">
+      <c r="C96" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="D96" s="18" t="s">
+      <c r="D96" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="E96" s="18" t="s">
+      <c r="E96" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F96" s="18" t="s">
+      <c r="F96" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="G96" s="18" t="s">
+      <c r="G96" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="H96" s="18" t="s">
+      <c r="H96" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="I96" s="18" t="s">
+      <c r="I96" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="J96" s="18">
+      <c r="J96" s="26">
         <v>375546.71</v>
       </c>
-      <c r="K96" s="46">
+      <c r="K96" s="29">
         <v>1132563.95</v>
       </c>
-      <c r="L96" s="18"/>
-      <c r="M96" s="46"/>
+      <c r="L96" s="26"/>
+      <c r="M96" s="29"/>
     </row>
     <row r="97" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="26"/>
-      <c r="B97" s="23"/>
-      <c r="C97" s="20"/>
-      <c r="D97" s="20"/>
-      <c r="E97" s="20"/>
-      <c r="F97" s="20"/>
-      <c r="G97" s="20"/>
-      <c r="H97" s="20"/>
-      <c r="I97" s="20"/>
-      <c r="J97" s="20"/>
-      <c r="K97" s="37"/>
-      <c r="L97" s="20"/>
-      <c r="M97" s="37"/>
+      <c r="A97" s="34"/>
+      <c r="B97" s="37"/>
+      <c r="C97" s="28"/>
+      <c r="D97" s="28"/>
+      <c r="E97" s="28"/>
+      <c r="F97" s="28"/>
+      <c r="G97" s="28"/>
+      <c r="H97" s="28"/>
+      <c r="I97" s="28"/>
+      <c r="J97" s="28"/>
+      <c r="K97" s="31"/>
+      <c r="L97" s="28"/>
+      <c r="M97" s="31"/>
     </row>
     <row r="98" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="24">
+      <c r="A98" s="32">
         <v>222</v>
       </c>
-      <c r="B98" s="21" t="s">
+      <c r="B98" s="36" t="s">
         <v>215</v>
       </c>
-      <c r="C98" s="27" t="s">
+      <c r="C98" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="D98" s="18" t="s">
+      <c r="D98" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="E98" s="18" t="s">
+      <c r="E98" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F98" s="18" t="s">
+      <c r="F98" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="G98" s="18" t="s">
+      <c r="G98" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="H98" s="18" t="s">
+      <c r="H98" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="I98" s="18" t="s">
+      <c r="I98" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="J98" s="18">
+      <c r="J98" s="26">
         <v>389031.88</v>
       </c>
-      <c r="K98" s="46">
+      <c r="K98" s="29">
         <v>1134274.57</v>
       </c>
-      <c r="L98" s="18"/>
-      <c r="M98" s="46"/>
+      <c r="L98" s="26"/>
+      <c r="M98" s="29"/>
     </row>
     <row r="99" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="26"/>
-      <c r="B99" s="23"/>
-      <c r="C99" s="20"/>
-      <c r="D99" s="20"/>
-      <c r="E99" s="20"/>
-      <c r="F99" s="20"/>
-      <c r="G99" s="20"/>
-      <c r="H99" s="20"/>
-      <c r="I99" s="20"/>
-      <c r="J99" s="20"/>
-      <c r="K99" s="37"/>
-      <c r="L99" s="20"/>
-      <c r="M99" s="37"/>
+      <c r="A99" s="34"/>
+      <c r="B99" s="37"/>
+      <c r="C99" s="28"/>
+      <c r="D99" s="28"/>
+      <c r="E99" s="28"/>
+      <c r="F99" s="28"/>
+      <c r="G99" s="28"/>
+      <c r="H99" s="28"/>
+      <c r="I99" s="28"/>
+      <c r="J99" s="28"/>
+      <c r="K99" s="31"/>
+      <c r="L99" s="28"/>
+      <c r="M99" s="31"/>
     </row>
     <row r="100" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="24">
+      <c r="A100" s="32">
         <v>223</v>
       </c>
-      <c r="B100" s="21" t="s">
+      <c r="B100" s="36" t="s">
         <v>219</v>
       </c>
-      <c r="C100" s="27" t="s">
+      <c r="C100" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="D100" s="18" t="s">
+      <c r="D100" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="E100" s="18" t="s">
+      <c r="E100" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F100" s="18" t="s">
+      <c r="F100" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="G100" s="18" t="s">
+      <c r="G100" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="H100" s="18" t="s">
+      <c r="H100" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="I100" s="18" t="s">
+      <c r="I100" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="J100" s="18">
+      <c r="J100" s="26">
         <v>389349.77</v>
       </c>
-      <c r="K100" s="46">
+      <c r="K100" s="29">
         <v>1133173.53</v>
       </c>
-      <c r="L100" s="18"/>
-      <c r="M100" s="46"/>
+      <c r="L100" s="26"/>
+      <c r="M100" s="29"/>
     </row>
     <row r="101" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="25"/>
-      <c r="B101" s="22"/>
-      <c r="C101" s="19"/>
-      <c r="D101" s="19"/>
-      <c r="E101" s="19"/>
-      <c r="F101" s="19"/>
-      <c r="G101" s="19"/>
-      <c r="H101" s="19"/>
-      <c r="I101" s="19"/>
-      <c r="J101" s="19"/>
-      <c r="K101" s="47"/>
-      <c r="L101" s="19"/>
-      <c r="M101" s="47"/>
+      <c r="A101" s="33"/>
+      <c r="B101" s="40"/>
+      <c r="C101" s="27"/>
+      <c r="D101" s="27"/>
+      <c r="E101" s="27"/>
+      <c r="F101" s="27"/>
+      <c r="G101" s="27"/>
+      <c r="H101" s="27"/>
+      <c r="I101" s="27"/>
+      <c r="J101" s="27"/>
+      <c r="K101" s="30"/>
+      <c r="L101" s="27"/>
+      <c r="M101" s="30"/>
     </row>
     <row r="102" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="26"/>
-      <c r="B102" s="23"/>
-      <c r="C102" s="20"/>
-      <c r="D102" s="20"/>
-      <c r="E102" s="20"/>
-      <c r="F102" s="20"/>
-      <c r="G102" s="20"/>
-      <c r="H102" s="20"/>
-      <c r="I102" s="20"/>
-      <c r="J102" s="20"/>
-      <c r="K102" s="37"/>
-      <c r="L102" s="20"/>
-      <c r="M102" s="37"/>
+      <c r="A102" s="34"/>
+      <c r="B102" s="37"/>
+      <c r="C102" s="28"/>
+      <c r="D102" s="28"/>
+      <c r="E102" s="28"/>
+      <c r="F102" s="28"/>
+      <c r="G102" s="28"/>
+      <c r="H102" s="28"/>
+      <c r="I102" s="28"/>
+      <c r="J102" s="28"/>
+      <c r="K102" s="31"/>
+      <c r="L102" s="28"/>
+      <c r="M102" s="31"/>
     </row>
     <row r="103" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="24">
+      <c r="A103" s="32">
         <v>229</v>
       </c>
-      <c r="B103" s="21" t="s">
+      <c r="B103" s="36" t="s">
         <v>223</v>
       </c>
-      <c r="C103" s="27" t="s">
+      <c r="C103" s="35" t="s">
         <v>224</v>
       </c>
-      <c r="D103" s="18" t="s">
+      <c r="D103" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="E103" s="18" t="s">
+      <c r="E103" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F103" s="18" t="s">
+      <c r="F103" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="G103" s="18" t="s">
+      <c r="G103" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="H103" s="18" t="s">
+      <c r="H103" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="I103" s="18" t="s">
+      <c r="I103" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="J103" s="18">
+      <c r="J103" s="26">
         <v>408111.06</v>
       </c>
-      <c r="K103" s="46">
+      <c r="K103" s="29">
         <v>1143273.8999999999</v>
       </c>
-      <c r="L103" s="18"/>
-      <c r="M103" s="46"/>
+      <c r="L103" s="26"/>
+      <c r="M103" s="29"/>
     </row>
     <row r="104" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="25"/>
-      <c r="B104" s="22"/>
-      <c r="C104" s="19"/>
-      <c r="D104" s="19"/>
-      <c r="E104" s="19"/>
-      <c r="F104" s="19"/>
-      <c r="G104" s="19"/>
-      <c r="H104" s="19"/>
-      <c r="I104" s="19"/>
-      <c r="J104" s="19"/>
-      <c r="K104" s="47"/>
-      <c r="L104" s="19"/>
-      <c r="M104" s="47"/>
+      <c r="A104" s="33"/>
+      <c r="B104" s="40"/>
+      <c r="C104" s="27"/>
+      <c r="D104" s="27"/>
+      <c r="E104" s="27"/>
+      <c r="F104" s="27"/>
+      <c r="G104" s="27"/>
+      <c r="H104" s="27"/>
+      <c r="I104" s="27"/>
+      <c r="J104" s="27"/>
+      <c r="K104" s="30"/>
+      <c r="L104" s="27"/>
+      <c r="M104" s="30"/>
     </row>
     <row r="105" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="26"/>
-      <c r="B105" s="23"/>
-      <c r="C105" s="20"/>
-      <c r="D105" s="20"/>
-      <c r="E105" s="20"/>
-      <c r="F105" s="20"/>
-      <c r="G105" s="20"/>
-      <c r="H105" s="20"/>
-      <c r="I105" s="20"/>
-      <c r="J105" s="20"/>
-      <c r="K105" s="37"/>
-      <c r="L105" s="20"/>
-      <c r="M105" s="37"/>
+      <c r="A105" s="34"/>
+      <c r="B105" s="37"/>
+      <c r="C105" s="28"/>
+      <c r="D105" s="28"/>
+      <c r="E105" s="28"/>
+      <c r="F105" s="28"/>
+      <c r="G105" s="28"/>
+      <c r="H105" s="28"/>
+      <c r="I105" s="28"/>
+      <c r="J105" s="28"/>
+      <c r="K105" s="31"/>
+      <c r="L105" s="28"/>
+      <c r="M105" s="31"/>
     </row>
     <row r="106" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="11">
@@ -4646,108 +4647,108 @@
       <c r="J106" s="13">
         <v>398234.26</v>
       </c>
-      <c r="K106" s="45">
+      <c r="K106" s="19">
         <v>1137462.21</v>
       </c>
       <c r="L106" s="14"/>
-      <c r="M106" s="45"/>
+      <c r="M106" s="19"/>
     </row>
     <row r="107" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="24">
+      <c r="A107" s="32">
         <v>235</v>
       </c>
-      <c r="B107" s="21" t="s">
+      <c r="B107" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="C107" s="27" t="s">
+      <c r="C107" s="35" t="s">
         <v>232</v>
       </c>
-      <c r="D107" s="18" t="s">
+      <c r="D107" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="E107" s="18" t="s">
+      <c r="E107" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F107" s="18" t="s">
+      <c r="F107" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="G107" s="18" t="s">
+      <c r="G107" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="H107" s="18" t="s">
+      <c r="H107" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="I107" s="18" t="s">
+      <c r="I107" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="J107" s="18">
+      <c r="J107" s="26">
         <v>400858</v>
       </c>
-      <c r="K107" s="46">
+      <c r="K107" s="29">
         <v>1126379.8600000001</v>
       </c>
-      <c r="L107" s="18"/>
-      <c r="M107" s="46"/>
+      <c r="L107" s="26"/>
+      <c r="M107" s="29"/>
     </row>
     <row r="108" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="25"/>
-      <c r="B108" s="22"/>
-      <c r="C108" s="19"/>
-      <c r="D108" s="19"/>
-      <c r="E108" s="19"/>
-      <c r="F108" s="19"/>
-      <c r="G108" s="19"/>
-      <c r="H108" s="19"/>
-      <c r="I108" s="19"/>
-      <c r="J108" s="19"/>
-      <c r="K108" s="47"/>
-      <c r="L108" s="19"/>
-      <c r="M108" s="47"/>
+      <c r="A108" s="33"/>
+      <c r="B108" s="40"/>
+      <c r="C108" s="27"/>
+      <c r="D108" s="27"/>
+      <c r="E108" s="27"/>
+      <c r="F108" s="27"/>
+      <c r="G108" s="27"/>
+      <c r="H108" s="27"/>
+      <c r="I108" s="27"/>
+      <c r="J108" s="27"/>
+      <c r="K108" s="30"/>
+      <c r="L108" s="27"/>
+      <c r="M108" s="30"/>
     </row>
     <row r="109" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="25"/>
-      <c r="B109" s="22"/>
-      <c r="C109" s="19"/>
-      <c r="D109" s="19"/>
-      <c r="E109" s="19"/>
-      <c r="F109" s="19"/>
-      <c r="G109" s="19"/>
-      <c r="H109" s="19"/>
-      <c r="I109" s="19"/>
-      <c r="J109" s="19"/>
-      <c r="K109" s="47"/>
-      <c r="L109" s="19"/>
-      <c r="M109" s="47"/>
+      <c r="A109" s="33"/>
+      <c r="B109" s="40"/>
+      <c r="C109" s="27"/>
+      <c r="D109" s="27"/>
+      <c r="E109" s="27"/>
+      <c r="F109" s="27"/>
+      <c r="G109" s="27"/>
+      <c r="H109" s="27"/>
+      <c r="I109" s="27"/>
+      <c r="J109" s="27"/>
+      <c r="K109" s="30"/>
+      <c r="L109" s="27"/>
+      <c r="M109" s="30"/>
     </row>
     <row r="110" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="25"/>
-      <c r="B110" s="22"/>
-      <c r="C110" s="19"/>
-      <c r="D110" s="19"/>
-      <c r="E110" s="19"/>
-      <c r="F110" s="19"/>
-      <c r="G110" s="19"/>
-      <c r="H110" s="19"/>
-      <c r="I110" s="19"/>
-      <c r="J110" s="19"/>
-      <c r="K110" s="47"/>
-      <c r="L110" s="19"/>
-      <c r="M110" s="47"/>
+      <c r="A110" s="33"/>
+      <c r="B110" s="40"/>
+      <c r="C110" s="27"/>
+      <c r="D110" s="27"/>
+      <c r="E110" s="27"/>
+      <c r="F110" s="27"/>
+      <c r="G110" s="27"/>
+      <c r="H110" s="27"/>
+      <c r="I110" s="27"/>
+      <c r="J110" s="27"/>
+      <c r="K110" s="30"/>
+      <c r="L110" s="27"/>
+      <c r="M110" s="30"/>
     </row>
     <row r="111" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="26"/>
-      <c r="B111" s="23"/>
-      <c r="C111" s="20"/>
-      <c r="D111" s="20"/>
-      <c r="E111" s="20"/>
-      <c r="F111" s="20"/>
-      <c r="G111" s="20"/>
-      <c r="H111" s="20"/>
-      <c r="I111" s="20"/>
-      <c r="J111" s="20"/>
-      <c r="K111" s="37"/>
-      <c r="L111" s="20"/>
-      <c r="M111" s="37"/>
+      <c r="A111" s="34"/>
+      <c r="B111" s="37"/>
+      <c r="C111" s="28"/>
+      <c r="D111" s="28"/>
+      <c r="E111" s="28"/>
+      <c r="F111" s="28"/>
+      <c r="G111" s="28"/>
+      <c r="H111" s="28"/>
+      <c r="I111" s="28"/>
+      <c r="J111" s="28"/>
+      <c r="K111" s="31"/>
+      <c r="L111" s="28"/>
+      <c r="M111" s="31"/>
     </row>
     <row r="112" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="11">
@@ -4780,264 +4781,264 @@
       <c r="J112" s="13">
         <v>390353.75</v>
       </c>
-      <c r="K112" s="45">
+      <c r="K112" s="19">
         <v>1139230.3999999999</v>
       </c>
       <c r="L112" s="14"/>
-      <c r="M112" s="45"/>
+      <c r="M112" s="19"/>
     </row>
     <row r="113" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="30">
+      <c r="A113" s="54">
         <v>244</v>
       </c>
-      <c r="B113" s="18" t="s">
+      <c r="B113" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="C113" s="27" t="s">
+      <c r="C113" s="35" t="s">
         <v>239</v>
       </c>
-      <c r="D113" s="18" t="s">
+      <c r="D113" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="E113" s="18" t="s">
+      <c r="E113" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F113" s="18" t="s">
+      <c r="F113" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="G113" s="18" t="s">
+      <c r="G113" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="H113" s="18" t="s">
+      <c r="H113" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="I113" s="18" t="s">
+      <c r="I113" s="26" t="s">
         <v>241</v>
       </c>
-      <c r="J113" s="18">
+      <c r="J113" s="26">
         <v>373547.59</v>
       </c>
-      <c r="K113" s="46">
+      <c r="K113" s="29">
         <v>1126762.7</v>
       </c>
-      <c r="L113" s="18"/>
-      <c r="M113" s="46"/>
+      <c r="L113" s="26"/>
+      <c r="M113" s="29"/>
     </row>
     <row r="114" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="19"/>
-      <c r="B114" s="19"/>
-      <c r="C114" s="19"/>
-      <c r="D114" s="19"/>
-      <c r="E114" s="19"/>
-      <c r="F114" s="19"/>
-      <c r="G114" s="19"/>
-      <c r="H114" s="19"/>
-      <c r="I114" s="19"/>
-      <c r="J114" s="19"/>
-      <c r="K114" s="47"/>
-      <c r="L114" s="19"/>
-      <c r="M114" s="47"/>
+      <c r="A114" s="27"/>
+      <c r="B114" s="27"/>
+      <c r="C114" s="27"/>
+      <c r="D114" s="27"/>
+      <c r="E114" s="27"/>
+      <c r="F114" s="27"/>
+      <c r="G114" s="27"/>
+      <c r="H114" s="27"/>
+      <c r="I114" s="27"/>
+      <c r="J114" s="27"/>
+      <c r="K114" s="30"/>
+      <c r="L114" s="27"/>
+      <c r="M114" s="30"/>
     </row>
     <row r="115" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="20"/>
-      <c r="B115" s="20"/>
-      <c r="C115" s="20"/>
-      <c r="D115" s="20"/>
-      <c r="E115" s="20"/>
-      <c r="F115" s="20"/>
-      <c r="G115" s="20"/>
-      <c r="H115" s="20"/>
-      <c r="I115" s="20"/>
-      <c r="J115" s="20"/>
-      <c r="K115" s="37"/>
-      <c r="L115" s="20"/>
-      <c r="M115" s="37"/>
+      <c r="A115" s="28"/>
+      <c r="B115" s="28"/>
+      <c r="C115" s="28"/>
+      <c r="D115" s="28"/>
+      <c r="E115" s="28"/>
+      <c r="F115" s="28"/>
+      <c r="G115" s="28"/>
+      <c r="H115" s="28"/>
+      <c r="I115" s="28"/>
+      <c r="J115" s="28"/>
+      <c r="K115" s="31"/>
+      <c r="L115" s="28"/>
+      <c r="M115" s="31"/>
     </row>
     <row r="116" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="24">
+      <c r="A116" s="32">
         <v>221</v>
       </c>
-      <c r="B116" s="21" t="s">
+      <c r="B116" s="36" t="s">
         <v>242</v>
       </c>
-      <c r="C116" s="27" t="s">
+      <c r="C116" s="35" t="s">
         <v>242</v>
       </c>
-      <c r="D116" s="18" t="s">
+      <c r="D116" s="26" t="s">
         <v>243</v>
       </c>
-      <c r="E116" s="18" t="s">
+      <c r="E116" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F116" s="18" t="s">
+      <c r="F116" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="G116" s="18" t="s">
+      <c r="G116" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="H116" s="18" t="s">
+      <c r="H116" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="I116" s="18" t="s">
+      <c r="I116" s="26" t="s">
         <v>245</v>
       </c>
-      <c r="J116" s="18">
+      <c r="J116" s="26">
         <v>384352.56</v>
       </c>
-      <c r="K116" s="46">
+      <c r="K116" s="29">
         <v>1134031.8799999999</v>
       </c>
-      <c r="L116" s="18"/>
-      <c r="M116" s="46"/>
+      <c r="L116" s="26"/>
+      <c r="M116" s="29"/>
     </row>
     <row r="117" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="26"/>
-      <c r="B117" s="23"/>
-      <c r="C117" s="20"/>
-      <c r="D117" s="20"/>
-      <c r="E117" s="20"/>
-      <c r="F117" s="20"/>
-      <c r="G117" s="20"/>
-      <c r="H117" s="20"/>
-      <c r="I117" s="20"/>
-      <c r="J117" s="20"/>
-      <c r="K117" s="37"/>
-      <c r="L117" s="20"/>
-      <c r="M117" s="37"/>
+      <c r="A117" s="34"/>
+      <c r="B117" s="37"/>
+      <c r="C117" s="28"/>
+      <c r="D117" s="28"/>
+      <c r="E117" s="28"/>
+      <c r="F117" s="28"/>
+      <c r="G117" s="28"/>
+      <c r="H117" s="28"/>
+      <c r="I117" s="28"/>
+      <c r="J117" s="28"/>
+      <c r="K117" s="31"/>
+      <c r="L117" s="28"/>
+      <c r="M117" s="31"/>
     </row>
     <row r="118" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="24">
+      <c r="A118" s="32">
         <v>224</v>
       </c>
-      <c r="B118" s="21" t="s">
+      <c r="B118" s="36" t="s">
         <v>246</v>
       </c>
-      <c r="C118" s="27" t="s">
+      <c r="C118" s="35" t="s">
         <v>246</v>
       </c>
-      <c r="D118" s="18" t="s">
+      <c r="D118" s="26" t="s">
         <v>247</v>
       </c>
-      <c r="E118" s="18" t="s">
+      <c r="E118" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F118" s="18" t="s">
+      <c r="F118" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="G118" s="18" t="s">
+      <c r="G118" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="H118" s="18" t="s">
+      <c r="H118" s="26" t="s">
         <v>244</v>
       </c>
-      <c r="I118" s="18" t="s">
+      <c r="I118" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="J118" s="18">
+      <c r="J118" s="26">
         <v>386517.18</v>
       </c>
-      <c r="K118" s="48">
+      <c r="K118" s="55">
         <v>1134655.3700000001</v>
       </c>
-      <c r="L118" s="18"/>
-      <c r="M118" s="48"/>
+      <c r="L118" s="26"/>
+      <c r="M118" s="55"/>
     </row>
     <row r="119" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="25"/>
-      <c r="B119" s="22"/>
-      <c r="C119" s="19"/>
-      <c r="D119" s="19"/>
-      <c r="E119" s="19"/>
-      <c r="F119" s="19"/>
-      <c r="G119" s="19"/>
-      <c r="H119" s="19"/>
-      <c r="I119" s="19"/>
-      <c r="J119" s="19"/>
-      <c r="K119" s="47"/>
-      <c r="L119" s="19"/>
-      <c r="M119" s="47"/>
+      <c r="A119" s="33"/>
+      <c r="B119" s="40"/>
+      <c r="C119" s="27"/>
+      <c r="D119" s="27"/>
+      <c r="E119" s="27"/>
+      <c r="F119" s="27"/>
+      <c r="G119" s="27"/>
+      <c r="H119" s="27"/>
+      <c r="I119" s="27"/>
+      <c r="J119" s="27"/>
+      <c r="K119" s="30"/>
+      <c r="L119" s="27"/>
+      <c r="M119" s="30"/>
     </row>
     <row r="120" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="26"/>
-      <c r="B120" s="23"/>
-      <c r="C120" s="20"/>
-      <c r="D120" s="20"/>
-      <c r="E120" s="20"/>
-      <c r="F120" s="20"/>
-      <c r="G120" s="20"/>
-      <c r="H120" s="20"/>
-      <c r="I120" s="20"/>
-      <c r="J120" s="20"/>
-      <c r="K120" s="37"/>
-      <c r="L120" s="20"/>
-      <c r="M120" s="37"/>
+      <c r="A120" s="34"/>
+      <c r="B120" s="37"/>
+      <c r="C120" s="28"/>
+      <c r="D120" s="28"/>
+      <c r="E120" s="28"/>
+      <c r="F120" s="28"/>
+      <c r="G120" s="28"/>
+      <c r="H120" s="28"/>
+      <c r="I120" s="28"/>
+      <c r="J120" s="28"/>
+      <c r="K120" s="31"/>
+      <c r="L120" s="28"/>
+      <c r="M120" s="31"/>
     </row>
     <row r="121" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="24">
+      <c r="A121" s="32">
         <v>228</v>
       </c>
-      <c r="B121" s="21" t="s">
+      <c r="B121" s="36" t="s">
         <v>249</v>
       </c>
-      <c r="C121" s="27" t="s">
+      <c r="C121" s="35" t="s">
         <v>249</v>
       </c>
-      <c r="D121" s="18" t="s">
+      <c r="D121" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="E121" s="18" t="s">
+      <c r="E121" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F121" s="18" t="s">
+      <c r="F121" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="G121" s="18" t="s">
+      <c r="G121" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="H121" s="18" t="s">
+      <c r="H121" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="I121" s="18" t="s">
+      <c r="I121" s="26" t="s">
         <v>252</v>
       </c>
-      <c r="J121" s="18">
+      <c r="J121" s="26">
         <v>400174.24</v>
       </c>
-      <c r="K121" s="46">
+      <c r="K121" s="29">
         <v>1144792.8999999999</v>
       </c>
-      <c r="L121" s="18"/>
-      <c r="M121" s="46"/>
+      <c r="L121" s="26"/>
+      <c r="M121" s="29"/>
     </row>
     <row r="122" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="25"/>
-      <c r="B122" s="22"/>
-      <c r="C122" s="19"/>
-      <c r="D122" s="19"/>
-      <c r="E122" s="19"/>
-      <c r="F122" s="19"/>
-      <c r="G122" s="19"/>
-      <c r="H122" s="19"/>
-      <c r="I122" s="19"/>
-      <c r="J122" s="19"/>
-      <c r="K122" s="47"/>
-      <c r="L122" s="19"/>
-      <c r="M122" s="47"/>
+      <c r="A122" s="33"/>
+      <c r="B122" s="40"/>
+      <c r="C122" s="27"/>
+      <c r="D122" s="27"/>
+      <c r="E122" s="27"/>
+      <c r="F122" s="27"/>
+      <c r="G122" s="27"/>
+      <c r="H122" s="27"/>
+      <c r="I122" s="27"/>
+      <c r="J122" s="27"/>
+      <c r="K122" s="30"/>
+      <c r="L122" s="27"/>
+      <c r="M122" s="30"/>
     </row>
     <row r="123" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="26"/>
-      <c r="B123" s="23"/>
-      <c r="C123" s="20"/>
-      <c r="D123" s="20"/>
-      <c r="E123" s="20"/>
-      <c r="F123" s="20"/>
-      <c r="G123" s="20"/>
-      <c r="H123" s="20"/>
-      <c r="I123" s="20"/>
-      <c r="J123" s="20"/>
-      <c r="K123" s="37"/>
-      <c r="L123" s="20"/>
-      <c r="M123" s="37"/>
+      <c r="A123" s="34"/>
+      <c r="B123" s="37"/>
+      <c r="C123" s="28"/>
+      <c r="D123" s="28"/>
+      <c r="E123" s="28"/>
+      <c r="F123" s="28"/>
+      <c r="G123" s="28"/>
+      <c r="H123" s="28"/>
+      <c r="I123" s="28"/>
+      <c r="J123" s="28"/>
+      <c r="K123" s="31"/>
+      <c r="L123" s="28"/>
+      <c r="M123" s="31"/>
     </row>
     <row r="124" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="11">
@@ -5070,11 +5071,11 @@
       <c r="J124" s="13">
         <v>403970.54</v>
       </c>
-      <c r="K124" s="45">
+      <c r="K124" s="19">
         <v>1143907.8</v>
       </c>
       <c r="L124" s="14"/>
-      <c r="M124" s="45"/>
+      <c r="M124" s="19"/>
     </row>
     <row r="125" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="11">
@@ -5107,14 +5108,14 @@
       <c r="J125" s="13">
         <v>396280.95</v>
       </c>
-      <c r="K125" s="45">
+      <c r="K125" s="19">
         <v>1134983.56</v>
       </c>
       <c r="L125" s="14"/>
-      <c r="M125" s="45"/>
+      <c r="M125" s="19"/>
     </row>
     <row r="126" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="24">
+      <c r="A126" s="32">
         <v>237</v>
       </c>
       <c r="B126" s="12" t="s">
@@ -5144,14 +5145,14 @@
       <c r="J126" s="13">
         <v>409306.99</v>
       </c>
-      <c r="K126" s="45">
+      <c r="K126" s="19">
         <v>1143459.9099999999</v>
       </c>
       <c r="L126" s="14"/>
-      <c r="M126" s="45"/>
+      <c r="M126" s="19"/>
     </row>
     <row r="127" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="25"/>
+      <c r="A127" s="33"/>
       <c r="B127" s="12"/>
       <c r="C127" s="9"/>
       <c r="D127" s="13"/>
@@ -5161,12 +5162,12 @@
       <c r="H127" s="13"/>
       <c r="I127" s="13"/>
       <c r="J127" s="13"/>
-      <c r="K127" s="45"/>
+      <c r="K127" s="19"/>
       <c r="L127" s="14"/>
-      <c r="M127" s="45"/>
+      <c r="M127" s="19"/>
     </row>
     <row r="128" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="25"/>
+      <c r="A128" s="33"/>
       <c r="B128" s="12"/>
       <c r="C128" s="9"/>
       <c r="D128" s="13"/>
@@ -5176,12 +5177,12 @@
       <c r="H128" s="13"/>
       <c r="I128" s="13"/>
       <c r="J128" s="13"/>
-      <c r="K128" s="45"/>
+      <c r="K128" s="19"/>
       <c r="L128" s="14"/>
-      <c r="M128" s="45"/>
+      <c r="M128" s="19"/>
     </row>
     <row r="129" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="26"/>
+      <c r="A129" s="34"/>
       <c r="B129" s="12"/>
       <c r="C129" s="9"/>
       <c r="D129" s="13"/>
@@ -5191,9 +5192,9 @@
       <c r="H129" s="13"/>
       <c r="I129" s="13"/>
       <c r="J129" s="13"/>
-      <c r="K129" s="45"/>
+      <c r="K129" s="19"/>
       <c r="L129" s="14"/>
-      <c r="M129" s="45"/>
+      <c r="M129" s="19"/>
     </row>
     <row r="130" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="11">
@@ -5226,11 +5227,11 @@
       <c r="J130" s="13">
         <v>371836.59</v>
       </c>
-      <c r="K130" s="45">
+      <c r="K130" s="19">
         <v>1127093.26</v>
       </c>
       <c r="L130" s="14"/>
-      <c r="M130" s="45"/>
+      <c r="M130" s="19"/>
     </row>
     <row r="131" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="11">
@@ -5263,227 +5264,227 @@
       <c r="J131" s="13">
         <v>392695.19</v>
       </c>
-      <c r="K131" s="45">
+      <c r="K131" s="19">
         <v>1138370.0900000001</v>
       </c>
       <c r="L131" s="14"/>
-      <c r="M131" s="45"/>
+      <c r="M131" s="19"/>
     </row>
     <row r="132" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="24">
+      <c r="A132" s="32">
         <v>246</v>
       </c>
-      <c r="B132" s="21" t="s">
+      <c r="B132" s="36" t="s">
         <v>272</v>
       </c>
-      <c r="C132" s="27" t="s">
+      <c r="C132" s="35" t="s">
         <v>273</v>
       </c>
-      <c r="D132" s="18" t="s">
+      <c r="D132" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="E132" s="18" t="s">
+      <c r="E132" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F132" s="18" t="s">
+      <c r="F132" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="G132" s="18" t="s">
+      <c r="G132" s="26" t="s">
         <v>275</v>
       </c>
-      <c r="H132" s="18" t="s">
+      <c r="H132" s="26" t="s">
         <v>276</v>
       </c>
-      <c r="I132" s="18" t="s">
+      <c r="I132" s="26" t="s">
         <v>277</v>
       </c>
-      <c r="J132" s="18">
+      <c r="J132" s="26">
         <v>400721.86</v>
       </c>
-      <c r="K132" s="46">
+      <c r="K132" s="29">
         <v>1158742.8600000001</v>
       </c>
-      <c r="L132" s="18"/>
-      <c r="M132" s="46"/>
+      <c r="L132" s="26"/>
+      <c r="M132" s="29"/>
     </row>
     <row r="133" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="26"/>
-      <c r="B133" s="23"/>
-      <c r="C133" s="20"/>
-      <c r="D133" s="20"/>
-      <c r="E133" s="20"/>
-      <c r="F133" s="20"/>
-      <c r="G133" s="20"/>
-      <c r="H133" s="20"/>
-      <c r="I133" s="20"/>
-      <c r="J133" s="20"/>
-      <c r="K133" s="37"/>
-      <c r="L133" s="20"/>
-      <c r="M133" s="37"/>
+      <c r="A133" s="34"/>
+      <c r="B133" s="37"/>
+      <c r="C133" s="28"/>
+      <c r="D133" s="28"/>
+      <c r="E133" s="28"/>
+      <c r="F133" s="28"/>
+      <c r="G133" s="28"/>
+      <c r="H133" s="28"/>
+      <c r="I133" s="28"/>
+      <c r="J133" s="28"/>
+      <c r="K133" s="31"/>
+      <c r="L133" s="28"/>
+      <c r="M133" s="31"/>
     </row>
     <row r="134" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="43">
+      <c r="A134" s="41">
         <v>247</v>
       </c>
-      <c r="B134" s="28" t="s">
+      <c r="B134" s="38" t="s">
         <v>278</v>
       </c>
-      <c r="C134" s="18" t="s">
+      <c r="C134" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="D134" s="28" t="s">
+      <c r="D134" s="38" t="s">
         <v>280</v>
       </c>
-      <c r="E134" s="28" t="s">
+      <c r="E134" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="F134" s="28" t="s">
+      <c r="F134" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="G134" s="28" t="s">
+      <c r="G134" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="H134" s="28" t="s">
+      <c r="H134" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="I134" s="28" t="s">
+      <c r="I134" s="38" t="s">
         <v>281</v>
       </c>
-      <c r="J134" s="28">
+      <c r="J134" s="38">
         <v>396329.67</v>
       </c>
-      <c r="K134" s="28">
+      <c r="K134" s="38">
         <v>1160882.2</v>
       </c>
-      <c r="L134" s="28"/>
-      <c r="M134" s="28"/>
+      <c r="L134" s="38"/>
+      <c r="M134" s="38"/>
     </row>
     <row r="135" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="25"/>
-      <c r="B135" s="29"/>
-      <c r="C135" s="19"/>
-      <c r="D135" s="29"/>
-      <c r="E135" s="29"/>
-      <c r="F135" s="29"/>
-      <c r="G135" s="29"/>
-      <c r="H135" s="29"/>
-      <c r="I135" s="29"/>
-      <c r="J135" s="29"/>
-      <c r="K135" s="29"/>
-      <c r="L135" s="29"/>
-      <c r="M135" s="29"/>
+      <c r="A135" s="33"/>
+      <c r="B135" s="39"/>
+      <c r="C135" s="27"/>
+      <c r="D135" s="39"/>
+      <c r="E135" s="39"/>
+      <c r="F135" s="39"/>
+      <c r="G135" s="39"/>
+      <c r="H135" s="39"/>
+      <c r="I135" s="39"/>
+      <c r="J135" s="39"/>
+      <c r="K135" s="39"/>
+      <c r="L135" s="39"/>
+      <c r="M135" s="39"/>
     </row>
     <row r="136" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="25"/>
-      <c r="B136" s="29"/>
-      <c r="C136" s="19"/>
-      <c r="D136" s="29"/>
-      <c r="E136" s="29"/>
-      <c r="F136" s="29"/>
-      <c r="G136" s="29"/>
-      <c r="H136" s="29"/>
-      <c r="I136" s="29"/>
-      <c r="J136" s="29"/>
-      <c r="K136" s="29"/>
-      <c r="L136" s="29"/>
-      <c r="M136" s="29"/>
+      <c r="A136" s="33"/>
+      <c r="B136" s="39"/>
+      <c r="C136" s="27"/>
+      <c r="D136" s="39"/>
+      <c r="E136" s="39"/>
+      <c r="F136" s="39"/>
+      <c r="G136" s="39"/>
+      <c r="H136" s="39"/>
+      <c r="I136" s="39"/>
+      <c r="J136" s="39"/>
+      <c r="K136" s="39"/>
+      <c r="L136" s="39"/>
+      <c r="M136" s="39"/>
     </row>
     <row r="137" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="25"/>
-      <c r="B137" s="29"/>
-      <c r="C137" s="20"/>
-      <c r="D137" s="29"/>
-      <c r="E137" s="29"/>
-      <c r="F137" s="29"/>
-      <c r="G137" s="29"/>
-      <c r="H137" s="29"/>
-      <c r="I137" s="29"/>
-      <c r="J137" s="29"/>
-      <c r="K137" s="29"/>
-      <c r="L137" s="29"/>
-      <c r="M137" s="29"/>
+      <c r="A137" s="33"/>
+      <c r="B137" s="39"/>
+      <c r="C137" s="28"/>
+      <c r="D137" s="39"/>
+      <c r="E137" s="39"/>
+      <c r="F137" s="39"/>
+      <c r="G137" s="39"/>
+      <c r="H137" s="39"/>
+      <c r="I137" s="39"/>
+      <c r="J137" s="39"/>
+      <c r="K137" s="39"/>
+      <c r="L137" s="39"/>
+      <c r="M137" s="39"/>
     </row>
     <row r="138" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="24">
+      <c r="A138" s="32">
         <v>248</v>
       </c>
-      <c r="B138" s="21" t="s">
+      <c r="B138" s="36" t="s">
         <v>282</v>
       </c>
-      <c r="C138" s="27" t="s">
+      <c r="C138" s="35" t="s">
         <v>283</v>
       </c>
-      <c r="D138" s="18" t="s">
+      <c r="D138" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="E138" s="18" t="s">
+      <c r="E138" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F138" s="18" t="s">
+      <c r="F138" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="G138" s="18" t="s">
+      <c r="G138" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="H138" s="18" t="s">
+      <c r="H138" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I138" s="18" t="s">
+      <c r="I138" s="26" t="s">
         <v>285</v>
       </c>
-      <c r="J138" s="18">
+      <c r="J138" s="26">
         <v>404300.98</v>
       </c>
-      <c r="K138" s="46">
+      <c r="K138" s="29">
         <v>1145413.72</v>
       </c>
-      <c r="L138" s="18"/>
-      <c r="M138" s="46"/>
+      <c r="L138" s="26"/>
+      <c r="M138" s="29"/>
     </row>
     <row r="139" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="25"/>
-      <c r="B139" s="22"/>
-      <c r="C139" s="19"/>
-      <c r="D139" s="19"/>
-      <c r="E139" s="19"/>
-      <c r="F139" s="19"/>
-      <c r="G139" s="19"/>
-      <c r="H139" s="19"/>
-      <c r="I139" s="19"/>
-      <c r="J139" s="19"/>
-      <c r="K139" s="47"/>
-      <c r="L139" s="19"/>
-      <c r="M139" s="47"/>
+      <c r="A139" s="33"/>
+      <c r="B139" s="40"/>
+      <c r="C139" s="27"/>
+      <c r="D139" s="27"/>
+      <c r="E139" s="27"/>
+      <c r="F139" s="27"/>
+      <c r="G139" s="27"/>
+      <c r="H139" s="27"/>
+      <c r="I139" s="27"/>
+      <c r="J139" s="27"/>
+      <c r="K139" s="30"/>
+      <c r="L139" s="27"/>
+      <c r="M139" s="30"/>
     </row>
     <row r="140" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="25"/>
-      <c r="B140" s="22"/>
-      <c r="C140" s="19"/>
-      <c r="D140" s="19"/>
-      <c r="E140" s="19"/>
-      <c r="F140" s="19"/>
-      <c r="G140" s="19"/>
-      <c r="H140" s="19"/>
-      <c r="I140" s="19"/>
-      <c r="J140" s="19"/>
-      <c r="K140" s="47"/>
-      <c r="L140" s="19"/>
-      <c r="M140" s="47"/>
+      <c r="A140" s="33"/>
+      <c r="B140" s="40"/>
+      <c r="C140" s="27"/>
+      <c r="D140" s="27"/>
+      <c r="E140" s="27"/>
+      <c r="F140" s="27"/>
+      <c r="G140" s="27"/>
+      <c r="H140" s="27"/>
+      <c r="I140" s="27"/>
+      <c r="J140" s="27"/>
+      <c r="K140" s="30"/>
+      <c r="L140" s="27"/>
+      <c r="M140" s="30"/>
     </row>
     <row r="141" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="26"/>
-      <c r="B141" s="23"/>
-      <c r="C141" s="20"/>
-      <c r="D141" s="20"/>
-      <c r="E141" s="20"/>
-      <c r="F141" s="20"/>
-      <c r="G141" s="20"/>
-      <c r="H141" s="20"/>
-      <c r="I141" s="20"/>
-      <c r="J141" s="20"/>
-      <c r="K141" s="37"/>
-      <c r="L141" s="20"/>
-      <c r="M141" s="37"/>
+      <c r="A141" s="34"/>
+      <c r="B141" s="37"/>
+      <c r="C141" s="28"/>
+      <c r="D141" s="28"/>
+      <c r="E141" s="28"/>
+      <c r="F141" s="28"/>
+      <c r="G141" s="28"/>
+      <c r="H141" s="28"/>
+      <c r="I141" s="28"/>
+      <c r="J141" s="28"/>
+      <c r="K141" s="31"/>
+      <c r="L141" s="28"/>
+      <c r="M141" s="31"/>
     </row>
     <row r="142" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="11">
@@ -5516,11 +5517,11 @@
       <c r="J142" s="13">
         <v>401127.42</v>
       </c>
-      <c r="K142" s="45">
+      <c r="K142" s="19">
         <v>1148025.24</v>
       </c>
       <c r="L142" s="14"/>
-      <c r="M142" s="45"/>
+      <c r="M142" s="19"/>
     </row>
     <row r="143" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="11">
@@ -5553,309 +5554,309 @@
       <c r="J143" s="13">
         <v>401095.18</v>
       </c>
-      <c r="K143" s="45">
+      <c r="K143" s="19">
         <v>1150086.1299999999</v>
       </c>
       <c r="L143" s="14"/>
-      <c r="M143" s="45"/>
+      <c r="M143" s="19"/>
     </row>
     <row r="144" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="24">
+      <c r="A144" s="32">
         <v>254</v>
       </c>
-      <c r="B144" s="21" t="s">
+      <c r="B144" s="36" t="s">
         <v>293</v>
       </c>
-      <c r="C144" s="27" t="s">
+      <c r="C144" s="35" t="s">
         <v>294</v>
       </c>
-      <c r="D144" s="18" t="s">
+      <c r="D144" s="26" t="s">
         <v>295</v>
       </c>
-      <c r="E144" s="18" t="s">
+      <c r="E144" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F144" s="18" t="s">
+      <c r="F144" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="G144" s="18" t="s">
+      <c r="G144" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="H144" s="18" t="s">
+      <c r="H144" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="I144" s="18" t="s">
+      <c r="I144" s="26" t="s">
         <v>296</v>
       </c>
-      <c r="J144" s="18">
+      <c r="J144" s="26">
         <v>399079.88</v>
       </c>
-      <c r="K144" s="46">
+      <c r="K144" s="29">
         <v>1161159.3400000001</v>
       </c>
-      <c r="L144" s="18"/>
-      <c r="M144" s="46"/>
+      <c r="L144" s="26"/>
+      <c r="M144" s="29"/>
     </row>
     <row r="145" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="25"/>
-      <c r="B145" s="22"/>
-      <c r="C145" s="19"/>
-      <c r="D145" s="19"/>
-      <c r="E145" s="19"/>
-      <c r="F145" s="19"/>
-      <c r="G145" s="19"/>
-      <c r="H145" s="19"/>
-      <c r="I145" s="19"/>
-      <c r="J145" s="19"/>
-      <c r="K145" s="47"/>
-      <c r="L145" s="19"/>
-      <c r="M145" s="47"/>
+      <c r="A145" s="33"/>
+      <c r="B145" s="40"/>
+      <c r="C145" s="27"/>
+      <c r="D145" s="27"/>
+      <c r="E145" s="27"/>
+      <c r="F145" s="27"/>
+      <c r="G145" s="27"/>
+      <c r="H145" s="27"/>
+      <c r="I145" s="27"/>
+      <c r="J145" s="27"/>
+      <c r="K145" s="30"/>
+      <c r="L145" s="27"/>
+      <c r="M145" s="30"/>
     </row>
     <row r="146" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="25"/>
-      <c r="B146" s="22"/>
-      <c r="C146" s="19"/>
-      <c r="D146" s="19"/>
-      <c r="E146" s="19"/>
-      <c r="F146" s="19"/>
-      <c r="G146" s="19"/>
-      <c r="H146" s="19"/>
-      <c r="I146" s="19"/>
-      <c r="J146" s="19"/>
-      <c r="K146" s="47"/>
-      <c r="L146" s="19"/>
-      <c r="M146" s="47"/>
+      <c r="A146" s="33"/>
+      <c r="B146" s="40"/>
+      <c r="C146" s="27"/>
+      <c r="D146" s="27"/>
+      <c r="E146" s="27"/>
+      <c r="F146" s="27"/>
+      <c r="G146" s="27"/>
+      <c r="H146" s="27"/>
+      <c r="I146" s="27"/>
+      <c r="J146" s="27"/>
+      <c r="K146" s="30"/>
+      <c r="L146" s="27"/>
+      <c r="M146" s="30"/>
     </row>
     <row r="147" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="26"/>
-      <c r="B147" s="23"/>
-      <c r="C147" s="20"/>
-      <c r="D147" s="20"/>
-      <c r="E147" s="20"/>
-      <c r="F147" s="20"/>
-      <c r="G147" s="20"/>
-      <c r="H147" s="20"/>
-      <c r="I147" s="20"/>
-      <c r="J147" s="20"/>
-      <c r="K147" s="37"/>
-      <c r="L147" s="20"/>
-      <c r="M147" s="37"/>
+      <c r="A147" s="34"/>
+      <c r="B147" s="37"/>
+      <c r="C147" s="28"/>
+      <c r="D147" s="28"/>
+      <c r="E147" s="28"/>
+      <c r="F147" s="28"/>
+      <c r="G147" s="28"/>
+      <c r="H147" s="28"/>
+      <c r="I147" s="28"/>
+      <c r="J147" s="28"/>
+      <c r="K147" s="31"/>
+      <c r="L147" s="28"/>
+      <c r="M147" s="31"/>
     </row>
     <row r="148" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="24">
+      <c r="A148" s="32">
         <v>255</v>
       </c>
-      <c r="B148" s="21" t="s">
+      <c r="B148" s="36" t="s">
         <v>297</v>
       </c>
-      <c r="C148" s="27" t="s">
+      <c r="C148" s="35" t="s">
         <v>298</v>
       </c>
-      <c r="D148" s="18" t="s">
+      <c r="D148" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="E148" s="18" t="s">
+      <c r="E148" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F148" s="18" t="s">
+      <c r="F148" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="G148" s="18" t="s">
+      <c r="G148" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="H148" s="18" t="s">
+      <c r="H148" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="I148" s="18" t="s">
+      <c r="I148" s="26" t="s">
         <v>300</v>
       </c>
-      <c r="J148" s="18">
+      <c r="J148" s="26">
         <v>403592.62</v>
       </c>
-      <c r="K148" s="46">
+      <c r="K148" s="29">
         <v>1147360.8400000001</v>
       </c>
-      <c r="L148" s="18"/>
-      <c r="M148" s="46"/>
+      <c r="L148" s="26"/>
+      <c r="M148" s="29"/>
     </row>
     <row r="149" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="25"/>
-      <c r="B149" s="22"/>
-      <c r="C149" s="19"/>
-      <c r="D149" s="19"/>
-      <c r="E149" s="19"/>
-      <c r="F149" s="19"/>
-      <c r="G149" s="19"/>
-      <c r="H149" s="19"/>
-      <c r="I149" s="19"/>
-      <c r="J149" s="19"/>
-      <c r="K149" s="47"/>
-      <c r="L149" s="19"/>
-      <c r="M149" s="47"/>
+      <c r="A149" s="33"/>
+      <c r="B149" s="40"/>
+      <c r="C149" s="27"/>
+      <c r="D149" s="27"/>
+      <c r="E149" s="27"/>
+      <c r="F149" s="27"/>
+      <c r="G149" s="27"/>
+      <c r="H149" s="27"/>
+      <c r="I149" s="27"/>
+      <c r="J149" s="27"/>
+      <c r="K149" s="30"/>
+      <c r="L149" s="27"/>
+      <c r="M149" s="30"/>
     </row>
     <row r="150" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="26"/>
-      <c r="B150" s="23"/>
-      <c r="C150" s="20"/>
-      <c r="D150" s="20"/>
-      <c r="E150" s="20"/>
-      <c r="F150" s="20"/>
-      <c r="G150" s="20"/>
-      <c r="H150" s="20"/>
-      <c r="I150" s="20"/>
-      <c r="J150" s="20"/>
-      <c r="K150" s="37"/>
-      <c r="L150" s="20"/>
-      <c r="M150" s="37"/>
+      <c r="A150" s="34"/>
+      <c r="B150" s="37"/>
+      <c r="C150" s="28"/>
+      <c r="D150" s="28"/>
+      <c r="E150" s="28"/>
+      <c r="F150" s="28"/>
+      <c r="G150" s="28"/>
+      <c r="H150" s="28"/>
+      <c r="I150" s="28"/>
+      <c r="J150" s="28"/>
+      <c r="K150" s="31"/>
+      <c r="L150" s="28"/>
+      <c r="M150" s="31"/>
     </row>
     <row r="151" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="24">
+      <c r="A151" s="32">
         <v>341</v>
       </c>
-      <c r="B151" s="21" t="s">
+      <c r="B151" s="36" t="s">
         <v>301</v>
       </c>
-      <c r="C151" s="27" t="s">
+      <c r="C151" s="35" t="s">
         <v>301</v>
       </c>
-      <c r="D151" s="18" t="s">
+      <c r="D151" s="26" t="s">
         <v>302</v>
       </c>
-      <c r="E151" s="18" t="s">
+      <c r="E151" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="F151" s="18" t="s">
+      <c r="F151" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="G151" s="18" t="s">
+      <c r="G151" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="H151" s="18" t="s">
+      <c r="H151" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="I151" s="18" t="s">
+      <c r="I151" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="J151" s="18">
+      <c r="J151" s="26">
         <v>423489.99</v>
       </c>
-      <c r="K151" s="46">
+      <c r="K151" s="29">
         <v>1131215.27</v>
       </c>
-      <c r="L151" s="18"/>
-      <c r="M151" s="46"/>
+      <c r="L151" s="26"/>
+      <c r="M151" s="29"/>
     </row>
     <row r="152" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="26"/>
-      <c r="B152" s="23"/>
-      <c r="C152" s="20"/>
-      <c r="D152" s="20"/>
-      <c r="E152" s="20"/>
-      <c r="F152" s="20"/>
-      <c r="G152" s="20"/>
-      <c r="H152" s="20"/>
-      <c r="I152" s="20"/>
-      <c r="J152" s="20"/>
-      <c r="K152" s="37"/>
-      <c r="L152" s="20"/>
-      <c r="M152" s="37"/>
+      <c r="A152" s="34"/>
+      <c r="B152" s="37"/>
+      <c r="C152" s="28"/>
+      <c r="D152" s="28"/>
+      <c r="E152" s="28"/>
+      <c r="F152" s="28"/>
+      <c r="G152" s="28"/>
+      <c r="H152" s="28"/>
+      <c r="I152" s="28"/>
+      <c r="J152" s="28"/>
+      <c r="K152" s="31"/>
+      <c r="L152" s="28"/>
+      <c r="M152" s="31"/>
     </row>
     <row r="153" spans="1:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="24">
+      <c r="A153" s="32">
         <v>4329</v>
       </c>
-      <c r="B153" s="21" t="s">
+      <c r="B153" s="36" t="s">
         <v>305</v>
       </c>
-      <c r="C153" s="27" t="s">
+      <c r="C153" s="35" t="s">
         <v>306</v>
       </c>
-      <c r="D153" s="18" t="s">
+      <c r="D153" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="E153" s="18" t="s">
+      <c r="E153" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="F153" s="18" t="s">
+      <c r="F153" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="G153" s="18" t="s">
+      <c r="G153" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="H153" s="18" t="s">
+      <c r="H153" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="I153" s="18" t="s">
+      <c r="I153" s="26" t="s">
         <v>308</v>
       </c>
-      <c r="J153" s="18">
+      <c r="J153" s="26">
         <v>422187.39</v>
       </c>
-      <c r="K153" s="46">
+      <c r="K153" s="29">
         <v>1130771.82</v>
       </c>
-      <c r="L153" s="18"/>
-      <c r="M153" s="46"/>
+      <c r="L153" s="26"/>
+      <c r="M153" s="29"/>
     </row>
     <row r="154" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="25"/>
-      <c r="B154" s="22"/>
-      <c r="C154" s="19"/>
-      <c r="D154" s="19"/>
-      <c r="E154" s="19"/>
-      <c r="F154" s="19"/>
-      <c r="G154" s="19"/>
-      <c r="H154" s="19"/>
-      <c r="I154" s="19"/>
-      <c r="J154" s="19"/>
-      <c r="K154" s="47"/>
-      <c r="L154" s="19"/>
-      <c r="M154" s="47"/>
+      <c r="A154" s="33"/>
+      <c r="B154" s="40"/>
+      <c r="C154" s="27"/>
+      <c r="D154" s="27"/>
+      <c r="E154" s="27"/>
+      <c r="F154" s="27"/>
+      <c r="G154" s="27"/>
+      <c r="H154" s="27"/>
+      <c r="I154" s="27"/>
+      <c r="J154" s="27"/>
+      <c r="K154" s="30"/>
+      <c r="L154" s="27"/>
+      <c r="M154" s="30"/>
     </row>
     <row r="155" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="25"/>
-      <c r="B155" s="22"/>
-      <c r="C155" s="19"/>
-      <c r="D155" s="19"/>
-      <c r="E155" s="19"/>
-      <c r="F155" s="19"/>
-      <c r="G155" s="19"/>
-      <c r="H155" s="19"/>
-      <c r="I155" s="19"/>
-      <c r="J155" s="19"/>
-      <c r="K155" s="47"/>
-      <c r="L155" s="19"/>
-      <c r="M155" s="47"/>
+      <c r="A155" s="33"/>
+      <c r="B155" s="40"/>
+      <c r="C155" s="27"/>
+      <c r="D155" s="27"/>
+      <c r="E155" s="27"/>
+      <c r="F155" s="27"/>
+      <c r="G155" s="27"/>
+      <c r="H155" s="27"/>
+      <c r="I155" s="27"/>
+      <c r="J155" s="27"/>
+      <c r="K155" s="30"/>
+      <c r="L155" s="27"/>
+      <c r="M155" s="30"/>
     </row>
     <row r="156" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="25"/>
-      <c r="B156" s="22"/>
-      <c r="C156" s="19"/>
-      <c r="D156" s="19"/>
-      <c r="E156" s="19"/>
-      <c r="F156" s="19"/>
-      <c r="G156" s="19"/>
-      <c r="H156" s="19"/>
-      <c r="I156" s="19"/>
-      <c r="J156" s="19"/>
-      <c r="K156" s="47"/>
-      <c r="L156" s="19"/>
-      <c r="M156" s="47"/>
+      <c r="A156" s="33"/>
+      <c r="B156" s="40"/>
+      <c r="C156" s="27"/>
+      <c r="D156" s="27"/>
+      <c r="E156" s="27"/>
+      <c r="F156" s="27"/>
+      <c r="G156" s="27"/>
+      <c r="H156" s="27"/>
+      <c r="I156" s="27"/>
+      <c r="J156" s="27"/>
+      <c r="K156" s="30"/>
+      <c r="L156" s="27"/>
+      <c r="M156" s="30"/>
     </row>
     <row r="157" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="26"/>
-      <c r="B157" s="23"/>
-      <c r="C157" s="20"/>
-      <c r="D157" s="20"/>
-      <c r="E157" s="20"/>
-      <c r="F157" s="20"/>
-      <c r="G157" s="20"/>
-      <c r="H157" s="20"/>
-      <c r="I157" s="20"/>
-      <c r="J157" s="20"/>
-      <c r="K157" s="37"/>
-      <c r="L157" s="20"/>
-      <c r="M157" s="37"/>
+      <c r="A157" s="34"/>
+      <c r="B157" s="37"/>
+      <c r="C157" s="28"/>
+      <c r="D157" s="28"/>
+      <c r="E157" s="28"/>
+      <c r="F157" s="28"/>
+      <c r="G157" s="28"/>
+      <c r="H157" s="28"/>
+      <c r="I157" s="28"/>
+      <c r="J157" s="28"/>
+      <c r="K157" s="31"/>
+      <c r="L157" s="28"/>
+      <c r="M157" s="31"/>
     </row>
     <row r="158" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="11">
@@ -5888,14 +5889,14 @@
       <c r="J158" s="13">
         <v>423124</v>
       </c>
-      <c r="K158" s="45">
+      <c r="K158" s="19">
         <v>1123232.3999999999</v>
       </c>
       <c r="L158" s="14"/>
-      <c r="M158" s="45"/>
+      <c r="M158" s="19"/>
     </row>
     <row r="159" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="24">
+      <c r="A159" s="32">
         <v>621</v>
       </c>
       <c r="B159" s="12" t="s">
@@ -5925,14 +5926,14 @@
       <c r="J159" s="13">
         <v>420901.06</v>
       </c>
-      <c r="K159" s="45">
+      <c r="K159" s="19">
         <v>1128369.31</v>
       </c>
       <c r="L159" s="14"/>
-      <c r="M159" s="45"/>
+      <c r="M159" s="19"/>
     </row>
     <row r="160" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="25"/>
+      <c r="A160" s="33"/>
       <c r="B160" s="12"/>
       <c r="C160" s="9"/>
       <c r="D160" s="13"/>
@@ -5942,12 +5943,12 @@
       <c r="H160" s="13"/>
       <c r="I160" s="13"/>
       <c r="J160" s="13"/>
-      <c r="K160" s="45"/>
+      <c r="K160" s="19"/>
       <c r="L160" s="14"/>
-      <c r="M160" s="45"/>
+      <c r="M160" s="19"/>
     </row>
     <row r="161" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="26"/>
+      <c r="A161" s="34"/>
       <c r="B161" s="12"/>
       <c r="C161" s="9"/>
       <c r="D161" s="13"/>
@@ -5957,12 +5958,12 @@
       <c r="H161" s="13"/>
       <c r="I161" s="13"/>
       <c r="J161" s="13"/>
-      <c r="K161" s="45"/>
+      <c r="K161" s="19"/>
       <c r="L161" s="14"/>
-      <c r="M161" s="45"/>
+      <c r="M161" s="19"/>
     </row>
     <row r="162" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="24">
+      <c r="A162" s="32">
         <v>626</v>
       </c>
       <c r="B162" s="12" t="s">
@@ -5992,14 +5993,14 @@
       <c r="J162" s="13">
         <v>420368.31</v>
       </c>
-      <c r="K162" s="45">
+      <c r="K162" s="19">
         <v>1124759.43</v>
       </c>
       <c r="L162" s="14"/>
-      <c r="M162" s="45"/>
+      <c r="M162" s="19"/>
     </row>
     <row r="163" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="25"/>
+      <c r="A163" s="33"/>
       <c r="B163" s="12"/>
       <c r="C163" s="9"/>
       <c r="D163" s="13"/>
@@ -6009,12 +6010,12 @@
       <c r="H163" s="13"/>
       <c r="I163" s="13"/>
       <c r="J163" s="13"/>
-      <c r="K163" s="45"/>
+      <c r="K163" s="19"/>
       <c r="L163" s="14"/>
-      <c r="M163" s="45"/>
+      <c r="M163" s="19"/>
     </row>
     <row r="164" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="26"/>
+      <c r="A164" s="34"/>
       <c r="B164" s="12"/>
       <c r="C164" s="9"/>
       <c r="D164" s="13"/>
@@ -6024,12 +6025,12 @@
       <c r="H164" s="13"/>
       <c r="I164" s="13"/>
       <c r="J164" s="13"/>
-      <c r="K164" s="45"/>
+      <c r="K164" s="19"/>
       <c r="L164" s="14"/>
-      <c r="M164" s="45"/>
+      <c r="M164" s="19"/>
     </row>
     <row r="165" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="24">
+      <c r="A165" s="32">
         <v>627</v>
       </c>
       <c r="B165" s="12" t="s">
@@ -6059,14 +6060,14 @@
       <c r="J165" s="13">
         <v>424624.58</v>
       </c>
-      <c r="K165" s="45">
+      <c r="K165" s="19">
         <v>1132414.01</v>
       </c>
       <c r="L165" s="14"/>
-      <c r="M165" s="45"/>
+      <c r="M165" s="19"/>
     </row>
     <row r="166" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="26"/>
+      <c r="A166" s="34"/>
       <c r="B166" s="12"/>
       <c r="C166" s="9"/>
       <c r="D166" s="13"/>
@@ -6076,203 +6077,203 @@
       <c r="H166" s="13"/>
       <c r="I166" s="13"/>
       <c r="J166" s="13"/>
-      <c r="K166" s="45"/>
+      <c r="K166" s="19"/>
       <c r="L166" s="14"/>
-      <c r="M166" s="45"/>
+      <c r="M166" s="19"/>
     </row>
     <row r="167" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="24">
+      <c r="A167" s="32">
         <v>628</v>
       </c>
-      <c r="B167" s="21" t="s">
+      <c r="B167" s="36" t="s">
         <v>324</v>
       </c>
-      <c r="C167" s="27" t="s">
+      <c r="C167" s="35" t="s">
         <v>324</v>
       </c>
-      <c r="D167" s="18" t="s">
+      <c r="D167" s="26" t="s">
         <v>325</v>
       </c>
-      <c r="E167" s="18" t="s">
+      <c r="E167" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="F167" s="18" t="s">
+      <c r="F167" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="G167" s="18" t="s">
+      <c r="G167" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="H167" s="18" t="s">
+      <c r="H167" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="I167" s="18" t="s">
+      <c r="I167" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="J167" s="18">
+      <c r="J167" s="26">
         <v>424038.16</v>
       </c>
-      <c r="K167" s="46">
+      <c r="K167" s="29">
         <v>1126609.95</v>
       </c>
-      <c r="L167" s="18"/>
-      <c r="M167" s="46"/>
+      <c r="L167" s="26"/>
+      <c r="M167" s="29"/>
     </row>
     <row r="168" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="25"/>
-      <c r="B168" s="22"/>
-      <c r="C168" s="19"/>
-      <c r="D168" s="19"/>
-      <c r="E168" s="19"/>
-      <c r="F168" s="19"/>
-      <c r="G168" s="19"/>
-      <c r="H168" s="19"/>
-      <c r="I168" s="19"/>
-      <c r="J168" s="19"/>
-      <c r="K168" s="47"/>
-      <c r="L168" s="19"/>
-      <c r="M168" s="47"/>
+      <c r="A168" s="33"/>
+      <c r="B168" s="40"/>
+      <c r="C168" s="27"/>
+      <c r="D168" s="27"/>
+      <c r="E168" s="27"/>
+      <c r="F168" s="27"/>
+      <c r="G168" s="27"/>
+      <c r="H168" s="27"/>
+      <c r="I168" s="27"/>
+      <c r="J168" s="27"/>
+      <c r="K168" s="30"/>
+      <c r="L168" s="27"/>
+      <c r="M168" s="30"/>
     </row>
     <row r="169" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="25"/>
-      <c r="B169" s="22"/>
-      <c r="C169" s="19"/>
-      <c r="D169" s="19"/>
-      <c r="E169" s="19"/>
-      <c r="F169" s="19"/>
-      <c r="G169" s="19"/>
-      <c r="H169" s="19"/>
-      <c r="I169" s="19"/>
-      <c r="J169" s="19"/>
-      <c r="K169" s="47"/>
-      <c r="L169" s="19"/>
-      <c r="M169" s="47"/>
+      <c r="A169" s="33"/>
+      <c r="B169" s="40"/>
+      <c r="C169" s="27"/>
+      <c r="D169" s="27"/>
+      <c r="E169" s="27"/>
+      <c r="F169" s="27"/>
+      <c r="G169" s="27"/>
+      <c r="H169" s="27"/>
+      <c r="I169" s="27"/>
+      <c r="J169" s="27"/>
+      <c r="K169" s="30"/>
+      <c r="L169" s="27"/>
+      <c r="M169" s="30"/>
     </row>
     <row r="170" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="25"/>
-      <c r="B170" s="22"/>
-      <c r="C170" s="19"/>
-      <c r="D170" s="19"/>
-      <c r="E170" s="19"/>
-      <c r="F170" s="19"/>
-      <c r="G170" s="19"/>
-      <c r="H170" s="19"/>
-      <c r="I170" s="19"/>
-      <c r="J170" s="19"/>
-      <c r="K170" s="47"/>
-      <c r="L170" s="19"/>
-      <c r="M170" s="47"/>
+      <c r="A170" s="33"/>
+      <c r="B170" s="40"/>
+      <c r="C170" s="27"/>
+      <c r="D170" s="27"/>
+      <c r="E170" s="27"/>
+      <c r="F170" s="27"/>
+      <c r="G170" s="27"/>
+      <c r="H170" s="27"/>
+      <c r="I170" s="27"/>
+      <c r="J170" s="27"/>
+      <c r="K170" s="30"/>
+      <c r="L170" s="27"/>
+      <c r="M170" s="30"/>
     </row>
     <row r="171" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="26"/>
-      <c r="B171" s="23"/>
-      <c r="C171" s="20"/>
-      <c r="D171" s="20"/>
-      <c r="E171" s="20"/>
-      <c r="F171" s="20"/>
-      <c r="G171" s="20"/>
-      <c r="H171" s="20"/>
-      <c r="I171" s="20"/>
-      <c r="J171" s="20"/>
-      <c r="K171" s="37"/>
-      <c r="L171" s="20"/>
-      <c r="M171" s="37"/>
+      <c r="A171" s="34"/>
+      <c r="B171" s="37"/>
+      <c r="C171" s="28"/>
+      <c r="D171" s="28"/>
+      <c r="E171" s="28"/>
+      <c r="F171" s="28"/>
+      <c r="G171" s="28"/>
+      <c r="H171" s="28"/>
+      <c r="I171" s="28"/>
+      <c r="J171" s="28"/>
+      <c r="K171" s="31"/>
+      <c r="L171" s="28"/>
+      <c r="M171" s="31"/>
     </row>
     <row r="172" spans="1:13" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="24">
+      <c r="A172" s="32">
         <v>629</v>
       </c>
-      <c r="B172" s="21" t="s">
+      <c r="B172" s="36" t="s">
         <v>326</v>
       </c>
-      <c r="C172" s="27" t="s">
+      <c r="C172" s="35" t="s">
         <v>326</v>
       </c>
-      <c r="D172" s="18" t="s">
+      <c r="D172" s="26" t="s">
         <v>327</v>
       </c>
-      <c r="E172" s="18" t="s">
+      <c r="E172" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="F172" s="18" t="s">
+      <c r="F172" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="G172" s="18" t="s">
+      <c r="G172" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="H172" s="18" t="s">
+      <c r="H172" s="26" t="s">
         <v>312</v>
       </c>
-      <c r="I172" s="18" t="s">
+      <c r="I172" s="26" t="s">
         <v>328</v>
       </c>
-      <c r="J172" s="18">
+      <c r="J172" s="26">
         <v>426487.3</v>
       </c>
-      <c r="K172" s="46">
+      <c r="K172" s="29">
         <v>1129562</v>
       </c>
-      <c r="L172" s="18"/>
-      <c r="M172" s="46"/>
+      <c r="L172" s="26"/>
+      <c r="M172" s="29"/>
     </row>
     <row r="173" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="25"/>
-      <c r="B173" s="22"/>
-      <c r="C173" s="19"/>
-      <c r="D173" s="19"/>
-      <c r="E173" s="19"/>
-      <c r="F173" s="19"/>
-      <c r="G173" s="19"/>
-      <c r="H173" s="19"/>
-      <c r="I173" s="19"/>
-      <c r="J173" s="19"/>
-      <c r="K173" s="47"/>
-      <c r="L173" s="19"/>
-      <c r="M173" s="47"/>
+      <c r="A173" s="33"/>
+      <c r="B173" s="40"/>
+      <c r="C173" s="27"/>
+      <c r="D173" s="27"/>
+      <c r="E173" s="27"/>
+      <c r="F173" s="27"/>
+      <c r="G173" s="27"/>
+      <c r="H173" s="27"/>
+      <c r="I173" s="27"/>
+      <c r="J173" s="27"/>
+      <c r="K173" s="30"/>
+      <c r="L173" s="27"/>
+      <c r="M173" s="30"/>
     </row>
     <row r="174" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="25"/>
-      <c r="B174" s="22"/>
-      <c r="C174" s="19"/>
-      <c r="D174" s="19"/>
-      <c r="E174" s="19"/>
-      <c r="F174" s="19"/>
-      <c r="G174" s="19"/>
-      <c r="H174" s="19"/>
-      <c r="I174" s="19"/>
-      <c r="J174" s="19"/>
-      <c r="K174" s="47"/>
-      <c r="L174" s="19"/>
-      <c r="M174" s="47"/>
+      <c r="A174" s="33"/>
+      <c r="B174" s="40"/>
+      <c r="C174" s="27"/>
+      <c r="D174" s="27"/>
+      <c r="E174" s="27"/>
+      <c r="F174" s="27"/>
+      <c r="G174" s="27"/>
+      <c r="H174" s="27"/>
+      <c r="I174" s="27"/>
+      <c r="J174" s="27"/>
+      <c r="K174" s="30"/>
+      <c r="L174" s="27"/>
+      <c r="M174" s="30"/>
     </row>
     <row r="175" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="25"/>
-      <c r="B175" s="22"/>
-      <c r="C175" s="19"/>
-      <c r="D175" s="19"/>
-      <c r="E175" s="19"/>
-      <c r="F175" s="19"/>
-      <c r="G175" s="19"/>
-      <c r="H175" s="19"/>
-      <c r="I175" s="19"/>
-      <c r="J175" s="19"/>
-      <c r="K175" s="47"/>
-      <c r="L175" s="19"/>
-      <c r="M175" s="47"/>
+      <c r="A175" s="33"/>
+      <c r="B175" s="40"/>
+      <c r="C175" s="27"/>
+      <c r="D175" s="27"/>
+      <c r="E175" s="27"/>
+      <c r="F175" s="27"/>
+      <c r="G175" s="27"/>
+      <c r="H175" s="27"/>
+      <c r="I175" s="27"/>
+      <c r="J175" s="27"/>
+      <c r="K175" s="30"/>
+      <c r="L175" s="27"/>
+      <c r="M175" s="30"/>
     </row>
     <row r="176" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="26"/>
-      <c r="B176" s="23"/>
-      <c r="C176" s="20"/>
-      <c r="D176" s="20"/>
-      <c r="E176" s="20"/>
-      <c r="F176" s="20"/>
-      <c r="G176" s="20"/>
-      <c r="H176" s="20"/>
-      <c r="I176" s="20"/>
-      <c r="J176" s="20"/>
-      <c r="K176" s="37"/>
-      <c r="L176" s="20"/>
-      <c r="M176" s="37"/>
+      <c r="A176" s="34"/>
+      <c r="B176" s="37"/>
+      <c r="C176" s="28"/>
+      <c r="D176" s="28"/>
+      <c r="E176" s="28"/>
+      <c r="F176" s="28"/>
+      <c r="G176" s="28"/>
+      <c r="H176" s="28"/>
+      <c r="I176" s="28"/>
+      <c r="J176" s="28"/>
+      <c r="K176" s="31"/>
+      <c r="L176" s="28"/>
+      <c r="M176" s="31"/>
     </row>
     <row r="177" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="16"/>
@@ -8806,116 +8807,319 @@
     </row>
   </sheetData>
   <mergeCells count="453">
-    <mergeCell ref="L35:L38"/>
-    <mergeCell ref="L39:L41"/>
-    <mergeCell ref="L72:L76"/>
-    <mergeCell ref="M72:M76"/>
-    <mergeCell ref="M78:M79"/>
-    <mergeCell ref="L100:L102"/>
-    <mergeCell ref="M100:M102"/>
-    <mergeCell ref="L107:L111"/>
-    <mergeCell ref="M107:M111"/>
-    <mergeCell ref="L121:L123"/>
-    <mergeCell ref="L132:L133"/>
-    <mergeCell ref="L151:L152"/>
-    <mergeCell ref="M151:M152"/>
-    <mergeCell ref="L153:L157"/>
-    <mergeCell ref="M153:M157"/>
-    <mergeCell ref="K172:K176"/>
-    <mergeCell ref="K167:K171"/>
-    <mergeCell ref="L167:L171"/>
-    <mergeCell ref="M167:M171"/>
-    <mergeCell ref="J172:J176"/>
-    <mergeCell ref="A148:A150"/>
-    <mergeCell ref="C144:C147"/>
-    <mergeCell ref="A144:A147"/>
-    <mergeCell ref="J153:J157"/>
-    <mergeCell ref="J144:J147"/>
-    <mergeCell ref="J151:J152"/>
-    <mergeCell ref="K153:K157"/>
-    <mergeCell ref="I148:I150"/>
-    <mergeCell ref="K151:K152"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="B134:B137"/>
-    <mergeCell ref="A126:A129"/>
-    <mergeCell ref="A138:A141"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="C138:C141"/>
-    <mergeCell ref="H118:H120"/>
-    <mergeCell ref="G113:G115"/>
-    <mergeCell ref="E144:E147"/>
-    <mergeCell ref="H148:H150"/>
-    <mergeCell ref="H151:H152"/>
-    <mergeCell ref="E151:E152"/>
-    <mergeCell ref="C148:C150"/>
-    <mergeCell ref="C151:C152"/>
-    <mergeCell ref="A134:A137"/>
-    <mergeCell ref="C134:C137"/>
-    <mergeCell ref="B144:B147"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="L134:L137"/>
-    <mergeCell ref="K134:K137"/>
-    <mergeCell ref="I118:I120"/>
-    <mergeCell ref="F138:F141"/>
-    <mergeCell ref="E138:E141"/>
-    <mergeCell ref="H138:H141"/>
-    <mergeCell ref="G138:G141"/>
-    <mergeCell ref="I113:I115"/>
-    <mergeCell ref="H113:H115"/>
-    <mergeCell ref="B121:B123"/>
-    <mergeCell ref="A121:A123"/>
-    <mergeCell ref="A118:A120"/>
-    <mergeCell ref="C121:C123"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="G151:G152"/>
-    <mergeCell ref="F151:F152"/>
-    <mergeCell ref="D151:D152"/>
-    <mergeCell ref="I151:I152"/>
-    <mergeCell ref="D153:D157"/>
-    <mergeCell ref="E153:E157"/>
-    <mergeCell ref="F153:F157"/>
-    <mergeCell ref="H153:H157"/>
-    <mergeCell ref="I153:I157"/>
-    <mergeCell ref="E121:E123"/>
-    <mergeCell ref="H121:H123"/>
-    <mergeCell ref="F121:F123"/>
-    <mergeCell ref="G121:G123"/>
-    <mergeCell ref="D121:D123"/>
-    <mergeCell ref="D132:D133"/>
-    <mergeCell ref="E132:E133"/>
-    <mergeCell ref="J167:J171"/>
-    <mergeCell ref="I167:I171"/>
-    <mergeCell ref="A153:A157"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="A167:A171"/>
-    <mergeCell ref="A172:A176"/>
-    <mergeCell ref="A159:A161"/>
-    <mergeCell ref="A165:A166"/>
-    <mergeCell ref="A162:A164"/>
-    <mergeCell ref="C153:C157"/>
-    <mergeCell ref="M39:M41"/>
-    <mergeCell ref="M35:M38"/>
-    <mergeCell ref="C172:C176"/>
-    <mergeCell ref="B148:B150"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="B153:B157"/>
-    <mergeCell ref="C167:C171"/>
-    <mergeCell ref="B172:B176"/>
-    <mergeCell ref="B167:B171"/>
-    <mergeCell ref="E167:E171"/>
-    <mergeCell ref="E172:E176"/>
-    <mergeCell ref="F167:F171"/>
-    <mergeCell ref="G167:G171"/>
-    <mergeCell ref="H167:H171"/>
-    <mergeCell ref="D167:D171"/>
-    <mergeCell ref="D172:D176"/>
-    <mergeCell ref="G172:G176"/>
-    <mergeCell ref="F172:F176"/>
-    <mergeCell ref="H172:H176"/>
-    <mergeCell ref="I172:I176"/>
-    <mergeCell ref="M172:M176"/>
-    <mergeCell ref="L172:L176"/>
-    <mergeCell ref="G153:G157"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="B68:B71"/>
+    <mergeCell ref="A68:A71"/>
+    <mergeCell ref="K98:K99"/>
+    <mergeCell ref="I98:I99"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="K100:K102"/>
+    <mergeCell ref="D81:D91"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="G81:G91"/>
+    <mergeCell ref="G72:G76"/>
+    <mergeCell ref="K72:K76"/>
+    <mergeCell ref="C100:C102"/>
+    <mergeCell ref="A100:A102"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A81:A91"/>
+    <mergeCell ref="B81:B91"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="L116:L117"/>
+    <mergeCell ref="M118:M120"/>
+    <mergeCell ref="K107:K111"/>
+    <mergeCell ref="J107:J111"/>
+    <mergeCell ref="H132:H133"/>
+    <mergeCell ref="M121:M123"/>
+    <mergeCell ref="M116:M117"/>
+    <mergeCell ref="L96:L97"/>
+    <mergeCell ref="I96:I97"/>
+    <mergeCell ref="K96:K97"/>
+    <mergeCell ref="J96:J97"/>
+    <mergeCell ref="L118:L120"/>
+    <mergeCell ref="K118:K120"/>
+    <mergeCell ref="I100:I102"/>
+    <mergeCell ref="J100:J102"/>
+    <mergeCell ref="I132:I133"/>
+    <mergeCell ref="K132:K133"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="G103:G105"/>
+    <mergeCell ref="H103:H105"/>
+    <mergeCell ref="H107:H111"/>
+    <mergeCell ref="K103:K105"/>
+    <mergeCell ref="M103:M105"/>
+    <mergeCell ref="L103:L105"/>
+    <mergeCell ref="I103:I105"/>
+    <mergeCell ref="I107:I111"/>
+    <mergeCell ref="L98:L99"/>
+    <mergeCell ref="M98:M99"/>
+    <mergeCell ref="E100:E102"/>
+    <mergeCell ref="F100:F102"/>
+    <mergeCell ref="G100:G102"/>
+    <mergeCell ref="D100:D102"/>
+    <mergeCell ref="C107:C111"/>
+    <mergeCell ref="G148:G150"/>
+    <mergeCell ref="D148:D150"/>
+    <mergeCell ref="D138:D141"/>
+    <mergeCell ref="G134:G137"/>
+    <mergeCell ref="F134:F137"/>
+    <mergeCell ref="I121:I123"/>
+    <mergeCell ref="K121:K123"/>
+    <mergeCell ref="J121:J123"/>
+    <mergeCell ref="K113:K115"/>
+    <mergeCell ref="K116:K117"/>
+    <mergeCell ref="K138:K141"/>
+    <mergeCell ref="K148:K150"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="D118:D120"/>
+    <mergeCell ref="E118:E120"/>
+    <mergeCell ref="F118:F120"/>
+    <mergeCell ref="G132:G133"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="G118:G120"/>
+    <mergeCell ref="G116:G117"/>
+    <mergeCell ref="E113:E115"/>
+    <mergeCell ref="F81:F91"/>
+    <mergeCell ref="E81:E91"/>
+    <mergeCell ref="I81:I91"/>
+    <mergeCell ref="H81:H91"/>
+    <mergeCell ref="M144:M147"/>
+    <mergeCell ref="M148:M150"/>
+    <mergeCell ref="L148:L150"/>
+    <mergeCell ref="I144:I147"/>
+    <mergeCell ref="H144:H147"/>
+    <mergeCell ref="L144:L147"/>
+    <mergeCell ref="K144:K147"/>
+    <mergeCell ref="G144:G147"/>
+    <mergeCell ref="F144:F147"/>
+    <mergeCell ref="I134:I137"/>
+    <mergeCell ref="H134:H137"/>
+    <mergeCell ref="J118:J120"/>
+    <mergeCell ref="J113:J115"/>
+    <mergeCell ref="J116:J117"/>
+    <mergeCell ref="J132:J133"/>
+    <mergeCell ref="J148:J150"/>
+    <mergeCell ref="J134:J137"/>
+    <mergeCell ref="I138:I141"/>
+    <mergeCell ref="J138:J141"/>
+    <mergeCell ref="E134:E137"/>
+    <mergeCell ref="K92:K93"/>
+    <mergeCell ref="L92:L93"/>
+    <mergeCell ref="J103:J105"/>
+    <mergeCell ref="J98:J99"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="K78:K79"/>
+    <mergeCell ref="M96:M97"/>
+    <mergeCell ref="J81:J91"/>
+    <mergeCell ref="J92:J93"/>
+    <mergeCell ref="L78:L79"/>
+    <mergeCell ref="M81:M91"/>
+    <mergeCell ref="L81:L91"/>
+    <mergeCell ref="K81:K91"/>
+    <mergeCell ref="G107:G111"/>
+    <mergeCell ref="D103:D105"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="I92:I93"/>
+    <mergeCell ref="G92:G93"/>
+    <mergeCell ref="H92:H93"/>
+    <mergeCell ref="H100:H102"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="D96:D97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="E103:E105"/>
+    <mergeCell ref="F103:F105"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="B107:B111"/>
+    <mergeCell ref="A113:A115"/>
+    <mergeCell ref="B113:B115"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="B118:B120"/>
+    <mergeCell ref="F107:F111"/>
+    <mergeCell ref="E107:E111"/>
+    <mergeCell ref="D107:D111"/>
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="A107:A111"/>
+    <mergeCell ref="A103:A105"/>
+    <mergeCell ref="C113:C115"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="C118:C120"/>
+    <mergeCell ref="C81:C91"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="L113:L115"/>
+    <mergeCell ref="M113:M115"/>
+    <mergeCell ref="M138:M141"/>
+    <mergeCell ref="L138:L141"/>
+    <mergeCell ref="M134:M137"/>
+    <mergeCell ref="M132:M133"/>
+    <mergeCell ref="E72:E76"/>
+    <mergeCell ref="D72:D76"/>
+    <mergeCell ref="I116:I117"/>
+    <mergeCell ref="H116:H117"/>
+    <mergeCell ref="F113:F115"/>
+    <mergeCell ref="F116:F117"/>
+    <mergeCell ref="D113:D115"/>
+    <mergeCell ref="F72:F76"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="I72:I76"/>
+    <mergeCell ref="H72:H76"/>
+    <mergeCell ref="J72:J76"/>
+    <mergeCell ref="I78:I79"/>
+    <mergeCell ref="G96:G97"/>
+    <mergeCell ref="H96:H97"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="I22:I24"/>
+    <mergeCell ref="K22:K24"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="M65:M67"/>
+    <mergeCell ref="L68:L71"/>
+    <mergeCell ref="L65:L67"/>
+    <mergeCell ref="F68:F71"/>
+    <mergeCell ref="G68:G71"/>
+    <mergeCell ref="I65:I67"/>
+    <mergeCell ref="J30:J33"/>
+    <mergeCell ref="K30:K33"/>
+    <mergeCell ref="M30:M33"/>
+    <mergeCell ref="L30:L33"/>
+    <mergeCell ref="I30:I33"/>
+    <mergeCell ref="H68:H71"/>
+    <mergeCell ref="F65:F67"/>
+    <mergeCell ref="M52:M56"/>
+    <mergeCell ref="J68:J71"/>
+    <mergeCell ref="K68:K71"/>
+    <mergeCell ref="I68:I71"/>
+    <mergeCell ref="M68:M71"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="C72:C76"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D68:D71"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="H52:H56"/>
+    <mergeCell ref="I52:I56"/>
+    <mergeCell ref="K52:K56"/>
+    <mergeCell ref="J52:J56"/>
+    <mergeCell ref="G52:G56"/>
+    <mergeCell ref="L52:L56"/>
+    <mergeCell ref="K46:K48"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="K65:K67"/>
+    <mergeCell ref="J65:J67"/>
+    <mergeCell ref="H65:H67"/>
+    <mergeCell ref="G65:G67"/>
+    <mergeCell ref="E68:E71"/>
+    <mergeCell ref="E65:E67"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="F39:F41"/>
+    <mergeCell ref="I39:I41"/>
+    <mergeCell ref="J39:J41"/>
+    <mergeCell ref="K39:K41"/>
+    <mergeCell ref="M46:M48"/>
+    <mergeCell ref="L46:L48"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="E39:E41"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="M22:M24"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="J22:J24"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M12:M15"/>
+    <mergeCell ref="L12:L15"/>
+    <mergeCell ref="L22:L24"/>
+    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="E52:E56"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="C52:C56"/>
+    <mergeCell ref="H46:H48"/>
+    <mergeCell ref="I46:I48"/>
+    <mergeCell ref="E46:E48"/>
+    <mergeCell ref="G46:G48"/>
+    <mergeCell ref="F46:F48"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="J46:J48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="F52:F56"/>
+    <mergeCell ref="H35:H38"/>
+    <mergeCell ref="G39:G41"/>
+    <mergeCell ref="H39:H41"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="H12:H15"/>
+    <mergeCell ref="I12:I15"/>
+    <mergeCell ref="K12:K15"/>
+    <mergeCell ref="J12:J15"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="G22:G24"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="E30:E33"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="G35:G38"/>
+    <mergeCell ref="I35:I38"/>
+    <mergeCell ref="J35:J38"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="G30:G33"/>
+    <mergeCell ref="H30:H33"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
     <mergeCell ref="B39:B41"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="C12:C15"/>
@@ -8940,325 +9144,122 @@
     <mergeCell ref="C35:C38"/>
     <mergeCell ref="B35:B38"/>
     <mergeCell ref="C39:C41"/>
-    <mergeCell ref="E30:E33"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="G35:G38"/>
-    <mergeCell ref="I35:I38"/>
-    <mergeCell ref="J35:J38"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="G30:G33"/>
-    <mergeCell ref="H30:H33"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="F35:F38"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="H12:H15"/>
-    <mergeCell ref="I12:I15"/>
-    <mergeCell ref="K12:K15"/>
-    <mergeCell ref="J12:J15"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="H22:H24"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M12:M15"/>
-    <mergeCell ref="L12:L15"/>
-    <mergeCell ref="L22:L24"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="E52:E56"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="C52:C56"/>
-    <mergeCell ref="H46:H48"/>
-    <mergeCell ref="I46:I48"/>
-    <mergeCell ref="E46:E48"/>
-    <mergeCell ref="G46:G48"/>
-    <mergeCell ref="F46:F48"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="J46:J48"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="F52:F56"/>
-    <mergeCell ref="H35:H38"/>
-    <mergeCell ref="G39:G41"/>
-    <mergeCell ref="H39:H41"/>
-    <mergeCell ref="F39:F41"/>
-    <mergeCell ref="I39:I41"/>
-    <mergeCell ref="J39:J41"/>
-    <mergeCell ref="K39:K41"/>
-    <mergeCell ref="M46:M48"/>
-    <mergeCell ref="L46:L48"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="E39:E41"/>
-    <mergeCell ref="H52:H56"/>
-    <mergeCell ref="I52:I56"/>
-    <mergeCell ref="K52:K56"/>
-    <mergeCell ref="J52:J56"/>
-    <mergeCell ref="G52:G56"/>
-    <mergeCell ref="L52:L56"/>
-    <mergeCell ref="K46:K48"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="M22:M24"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="C68:C71"/>
-    <mergeCell ref="C72:C76"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="K65:K67"/>
-    <mergeCell ref="J65:J67"/>
-    <mergeCell ref="H65:H67"/>
-    <mergeCell ref="G65:G67"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="J22:J24"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="I22:I24"/>
-    <mergeCell ref="K22:K24"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="M65:M67"/>
-    <mergeCell ref="L68:L71"/>
-    <mergeCell ref="L65:L67"/>
-    <mergeCell ref="F68:F71"/>
-    <mergeCell ref="G68:G71"/>
-    <mergeCell ref="I65:I67"/>
-    <mergeCell ref="J30:J33"/>
-    <mergeCell ref="K30:K33"/>
-    <mergeCell ref="M30:M33"/>
-    <mergeCell ref="L30:L33"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="I30:I33"/>
-    <mergeCell ref="H68:H71"/>
-    <mergeCell ref="D68:D71"/>
-    <mergeCell ref="F65:F67"/>
-    <mergeCell ref="E68:E71"/>
-    <mergeCell ref="E65:E67"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="M52:M56"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="E4:K4"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="C81:C91"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="L113:L115"/>
-    <mergeCell ref="M113:M115"/>
-    <mergeCell ref="M138:M141"/>
-    <mergeCell ref="L138:L141"/>
-    <mergeCell ref="M134:M137"/>
-    <mergeCell ref="M132:M133"/>
-    <mergeCell ref="E72:E76"/>
-    <mergeCell ref="D72:D76"/>
-    <mergeCell ref="I116:I117"/>
-    <mergeCell ref="H116:H117"/>
-    <mergeCell ref="F113:F115"/>
-    <mergeCell ref="F116:F117"/>
-    <mergeCell ref="D113:D115"/>
-    <mergeCell ref="J68:J71"/>
-    <mergeCell ref="K68:K71"/>
-    <mergeCell ref="F72:F76"/>
-    <mergeCell ref="I68:I71"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="I72:I76"/>
-    <mergeCell ref="H72:H76"/>
-    <mergeCell ref="J72:J76"/>
-    <mergeCell ref="I78:I79"/>
-    <mergeCell ref="G96:G97"/>
-    <mergeCell ref="H96:H97"/>
-    <mergeCell ref="F96:F97"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="B107:B111"/>
-    <mergeCell ref="A113:A115"/>
-    <mergeCell ref="B113:B115"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="B118:B120"/>
-    <mergeCell ref="F107:F111"/>
-    <mergeCell ref="E107:E111"/>
-    <mergeCell ref="D107:D111"/>
-    <mergeCell ref="G107:G111"/>
-    <mergeCell ref="D103:D105"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="I92:I93"/>
-    <mergeCell ref="G92:G93"/>
-    <mergeCell ref="H92:H93"/>
-    <mergeCell ref="H100:H102"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="D96:D97"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="M92:M93"/>
-    <mergeCell ref="K92:K93"/>
-    <mergeCell ref="L92:L93"/>
-    <mergeCell ref="J103:J105"/>
-    <mergeCell ref="J98:J99"/>
-    <mergeCell ref="J78:J79"/>
-    <mergeCell ref="K78:K79"/>
-    <mergeCell ref="M96:M97"/>
-    <mergeCell ref="J81:J91"/>
-    <mergeCell ref="J92:J93"/>
-    <mergeCell ref="L78:L79"/>
-    <mergeCell ref="E103:E105"/>
-    <mergeCell ref="F103:F105"/>
-    <mergeCell ref="F81:F91"/>
-    <mergeCell ref="E81:E91"/>
-    <mergeCell ref="I81:I91"/>
-    <mergeCell ref="H81:H91"/>
-    <mergeCell ref="M144:M147"/>
-    <mergeCell ref="M148:M150"/>
-    <mergeCell ref="L148:L150"/>
-    <mergeCell ref="I144:I147"/>
-    <mergeCell ref="H144:H147"/>
-    <mergeCell ref="L144:L147"/>
-    <mergeCell ref="K144:K147"/>
-    <mergeCell ref="G144:G147"/>
-    <mergeCell ref="F144:F147"/>
-    <mergeCell ref="D144:D147"/>
-    <mergeCell ref="I134:I137"/>
-    <mergeCell ref="H134:H137"/>
-    <mergeCell ref="J118:J120"/>
-    <mergeCell ref="J113:J115"/>
-    <mergeCell ref="J116:J117"/>
-    <mergeCell ref="J132:J133"/>
-    <mergeCell ref="J148:J150"/>
-    <mergeCell ref="J134:J137"/>
-    <mergeCell ref="I138:I141"/>
-    <mergeCell ref="J138:J141"/>
-    <mergeCell ref="E134:E137"/>
-    <mergeCell ref="D134:D137"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="B153:B157"/>
+    <mergeCell ref="C167:C171"/>
+    <mergeCell ref="B172:B176"/>
+    <mergeCell ref="B167:B171"/>
+    <mergeCell ref="E167:E171"/>
+    <mergeCell ref="E172:E176"/>
+    <mergeCell ref="F167:F171"/>
+    <mergeCell ref="D167:D171"/>
+    <mergeCell ref="D172:D176"/>
+    <mergeCell ref="F172:F176"/>
     <mergeCell ref="E148:E150"/>
     <mergeCell ref="F148:F150"/>
-    <mergeCell ref="G148:G150"/>
-    <mergeCell ref="D148:D150"/>
-    <mergeCell ref="D138:D141"/>
-    <mergeCell ref="G134:G137"/>
-    <mergeCell ref="F134:F137"/>
-    <mergeCell ref="I121:I123"/>
-    <mergeCell ref="K121:K123"/>
-    <mergeCell ref="J121:J123"/>
-    <mergeCell ref="K113:K115"/>
-    <mergeCell ref="K116:K117"/>
-    <mergeCell ref="K138:K141"/>
-    <mergeCell ref="K148:K150"/>
-    <mergeCell ref="C103:C105"/>
-    <mergeCell ref="A107:A111"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="G103:G105"/>
-    <mergeCell ref="H103:H105"/>
-    <mergeCell ref="H107:H111"/>
-    <mergeCell ref="K103:K105"/>
-    <mergeCell ref="M103:M105"/>
-    <mergeCell ref="L103:L105"/>
-    <mergeCell ref="I103:I105"/>
-    <mergeCell ref="I107:I111"/>
-    <mergeCell ref="M81:M91"/>
-    <mergeCell ref="L81:L91"/>
-    <mergeCell ref="K81:K91"/>
-    <mergeCell ref="L98:L99"/>
-    <mergeCell ref="M98:M99"/>
-    <mergeCell ref="L116:L117"/>
-    <mergeCell ref="M118:M120"/>
-    <mergeCell ref="K107:K111"/>
-    <mergeCell ref="J107:J111"/>
-    <mergeCell ref="H132:H133"/>
-    <mergeCell ref="M121:M123"/>
-    <mergeCell ref="M116:M117"/>
-    <mergeCell ref="L96:L97"/>
-    <mergeCell ref="I96:I97"/>
-    <mergeCell ref="K96:K97"/>
-    <mergeCell ref="J96:J97"/>
-    <mergeCell ref="L118:L120"/>
-    <mergeCell ref="K118:K120"/>
-    <mergeCell ref="D116:D117"/>
-    <mergeCell ref="E116:E117"/>
-    <mergeCell ref="D118:D120"/>
-    <mergeCell ref="E118:E120"/>
-    <mergeCell ref="F118:F120"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="H78:H79"/>
-    <mergeCell ref="M68:M71"/>
-    <mergeCell ref="A103:A105"/>
-    <mergeCell ref="I100:I102"/>
-    <mergeCell ref="J100:J102"/>
-    <mergeCell ref="E100:E102"/>
-    <mergeCell ref="F100:F102"/>
-    <mergeCell ref="G100:G102"/>
-    <mergeCell ref="D100:D102"/>
+    <mergeCell ref="J167:J171"/>
+    <mergeCell ref="I167:I171"/>
+    <mergeCell ref="A153:A157"/>
+    <mergeCell ref="A151:A152"/>
+    <mergeCell ref="A167:A171"/>
+    <mergeCell ref="A172:A176"/>
+    <mergeCell ref="A159:A161"/>
+    <mergeCell ref="A165:A166"/>
+    <mergeCell ref="A162:A164"/>
+    <mergeCell ref="C153:C157"/>
+    <mergeCell ref="C172:C176"/>
+    <mergeCell ref="G167:G171"/>
+    <mergeCell ref="H167:H171"/>
+    <mergeCell ref="G172:G176"/>
+    <mergeCell ref="H172:H176"/>
+    <mergeCell ref="I172:I176"/>
+    <mergeCell ref="G153:G157"/>
+    <mergeCell ref="I118:I120"/>
+    <mergeCell ref="F138:F141"/>
+    <mergeCell ref="E138:E141"/>
+    <mergeCell ref="H138:H141"/>
+    <mergeCell ref="G138:G141"/>
+    <mergeCell ref="I113:I115"/>
+    <mergeCell ref="H113:H115"/>
+    <mergeCell ref="B121:B123"/>
+    <mergeCell ref="A121:A123"/>
+    <mergeCell ref="A118:A120"/>
+    <mergeCell ref="C121:C123"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="E121:E123"/>
+    <mergeCell ref="H121:H123"/>
+    <mergeCell ref="F121:F123"/>
+    <mergeCell ref="G121:G123"/>
+    <mergeCell ref="D121:D123"/>
+    <mergeCell ref="D132:D133"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="D134:D137"/>
     <mergeCell ref="C132:C133"/>
-    <mergeCell ref="C107:C111"/>
-    <mergeCell ref="C113:C115"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="C118:C120"/>
-    <mergeCell ref="G132:G133"/>
-    <mergeCell ref="F132:F133"/>
-    <mergeCell ref="G118:G120"/>
-    <mergeCell ref="G116:G117"/>
-    <mergeCell ref="E113:E115"/>
-    <mergeCell ref="I132:I133"/>
-    <mergeCell ref="K132:K133"/>
-    <mergeCell ref="B100:B102"/>
-    <mergeCell ref="B68:B71"/>
-    <mergeCell ref="A68:A71"/>
-    <mergeCell ref="K98:K99"/>
-    <mergeCell ref="I98:I99"/>
-    <mergeCell ref="H98:H99"/>
-    <mergeCell ref="K100:K102"/>
-    <mergeCell ref="D81:D91"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="G81:G91"/>
-    <mergeCell ref="G72:G76"/>
-    <mergeCell ref="K72:K76"/>
-    <mergeCell ref="C100:C102"/>
-    <mergeCell ref="A100:A102"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A81:A91"/>
-    <mergeCell ref="B81:B91"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="B134:B137"/>
+    <mergeCell ref="A126:A129"/>
+    <mergeCell ref="A138:A141"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="C138:C141"/>
+    <mergeCell ref="H118:H120"/>
+    <mergeCell ref="G113:G115"/>
+    <mergeCell ref="E144:E147"/>
+    <mergeCell ref="A134:A137"/>
+    <mergeCell ref="C134:C137"/>
+    <mergeCell ref="B144:B147"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="D144:D147"/>
+    <mergeCell ref="J172:J176"/>
+    <mergeCell ref="A148:A150"/>
+    <mergeCell ref="C144:C147"/>
+    <mergeCell ref="A144:A147"/>
+    <mergeCell ref="J153:J157"/>
+    <mergeCell ref="J144:J147"/>
+    <mergeCell ref="J151:J152"/>
+    <mergeCell ref="K153:K157"/>
+    <mergeCell ref="I148:I150"/>
+    <mergeCell ref="K151:K152"/>
+    <mergeCell ref="H148:H150"/>
+    <mergeCell ref="H151:H152"/>
+    <mergeCell ref="E151:E152"/>
+    <mergeCell ref="C148:C150"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="G151:G152"/>
+    <mergeCell ref="F151:F152"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="I151:I152"/>
+    <mergeCell ref="D153:D157"/>
+    <mergeCell ref="E153:E157"/>
+    <mergeCell ref="F153:F157"/>
+    <mergeCell ref="H153:H157"/>
+    <mergeCell ref="I153:I157"/>
+    <mergeCell ref="L121:L123"/>
+    <mergeCell ref="L132:L133"/>
+    <mergeCell ref="L151:L152"/>
+    <mergeCell ref="M151:M152"/>
+    <mergeCell ref="L153:L157"/>
+    <mergeCell ref="M153:M157"/>
+    <mergeCell ref="K172:K176"/>
+    <mergeCell ref="K167:K171"/>
+    <mergeCell ref="L167:L171"/>
+    <mergeCell ref="M167:M171"/>
+    <mergeCell ref="L134:L137"/>
+    <mergeCell ref="K134:K137"/>
+    <mergeCell ref="M172:M176"/>
+    <mergeCell ref="L172:L176"/>
+    <mergeCell ref="L35:L38"/>
+    <mergeCell ref="L39:L41"/>
+    <mergeCell ref="L72:L76"/>
+    <mergeCell ref="M72:M76"/>
+    <mergeCell ref="M78:M79"/>
+    <mergeCell ref="L100:L102"/>
+    <mergeCell ref="M100:M102"/>
+    <mergeCell ref="L107:L111"/>
+    <mergeCell ref="M107:M111"/>
+    <mergeCell ref="M39:M41"/>
+    <mergeCell ref="M35:M38"/>
+    <mergeCell ref="M92:M93"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -9271,777 +9272,1049 @@
   <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D74" sqref="C1:D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="11.42578125" style="56"/>
+    <col min="1" max="4" width="11.42578125" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="53">
+      <c r="A1" s="23">
         <v>348223.23</v>
       </c>
-      <c r="B1" s="53">
+      <c r="B1" s="23">
         <v>1168959.1200000001</v>
       </c>
-      <c r="C1" s="55">
+      <c r="C1" s="24">
         <v>-85.386819500000001</v>
       </c>
-      <c r="D1" s="55">
+      <c r="D1" s="24">
         <v>10.5685225</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="53">
+      <c r="A2" s="23">
         <v>374140.89</v>
       </c>
-      <c r="B2" s="53">
+      <c r="B2" s="23">
         <v>1169911.93</v>
       </c>
-      <c r="C2" s="55">
+      <c r="C2" s="24">
         <v>-85.150070600000006</v>
       </c>
-      <c r="D2" s="55">
+      <c r="D2" s="24">
         <v>10.5780882</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="53">
+      <c r="A3" s="23">
         <v>368827.55</v>
       </c>
-      <c r="B3" s="53">
+      <c r="B3" s="23">
         <v>1180585.57</v>
       </c>
-      <c r="C3" s="55">
+      <c r="C3" s="24">
         <v>-85.198991800000002</v>
       </c>
-      <c r="D3" s="55">
+      <c r="D3" s="24">
         <v>10.674391999999999</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="53">
+      <c r="A4" s="23">
         <v>379594.44</v>
       </c>
-      <c r="B4" s="53">
+      <c r="B4" s="23">
         <v>1179999.95</v>
       </c>
-      <c r="C4" s="55">
+      <c r="C4" s="24">
         <v>-85.100570300000001</v>
       </c>
-      <c r="D4" s="55">
+      <c r="D4" s="24">
         <v>10.669460000000001</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="53">
+      <c r="A5" s="23">
         <v>368780.69</v>
       </c>
-      <c r="B5" s="53">
+      <c r="B5" s="23">
         <v>1176376.5900000001</v>
       </c>
-      <c r="C5" s="55">
+      <c r="C5" s="24">
         <v>-85.199271100000004</v>
       </c>
-      <c r="D5" s="55">
+      <c r="D5" s="24">
         <v>10.6363433</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="53">
+      <c r="A6" s="23">
         <v>366064.68</v>
       </c>
-      <c r="B6" s="53">
+      <c r="B6" s="23">
         <v>1184139.48</v>
       </c>
-      <c r="C6" s="55">
+      <c r="C6" s="24">
         <v>-85.224370800000003</v>
       </c>
-      <c r="D6" s="55">
+      <c r="D6" s="24">
         <v>10.7064194</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="53">
+      <c r="A7" s="23">
         <v>361793.04</v>
       </c>
-      <c r="B7" s="53">
+      <c r="B7" s="23">
         <v>1182961.1599999999</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
+      <c r="C7" s="56">
+        <v>-85.263369444899993</v>
+      </c>
+      <c r="D7" s="56">
+        <v>10.695612476599999</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="53">
+      <c r="A8" s="23">
         <v>364759.58</v>
       </c>
-      <c r="B8" s="53">
+      <c r="B8" s="23">
         <v>1179616.1299999999</v>
       </c>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
+      <c r="C8" s="56">
+        <v>-85.236134045300005</v>
+      </c>
+      <c r="D8" s="56">
+        <v>10.6654841158</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="53">
+      <c r="A9" s="23">
         <v>361809.32</v>
       </c>
-      <c r="B9" s="53">
+      <c r="B9" s="23">
         <v>1179455.1499999999</v>
       </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
+      <c r="C9" s="56">
+        <v>-85.263089720400004</v>
+      </c>
+      <c r="D9" s="56">
+        <v>10.663921310199999</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="53">
+      <c r="A10" s="23">
         <v>369928.32</v>
       </c>
-      <c r="B10" s="53">
+      <c r="B10" s="23">
         <v>1131505.3999999999</v>
       </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
+      <c r="C10" s="56">
+        <v>-85.187245105900004</v>
+      </c>
+      <c r="D10" s="56">
+        <v>10.2307626824</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="53">
+      <c r="A11" s="23">
         <v>396950.45</v>
       </c>
-      <c r="B11" s="53">
+      <c r="B11" s="23">
         <v>1156424.8500000001</v>
       </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
+      <c r="C11" s="56">
+        <v>-84.941294335199998</v>
+      </c>
+      <c r="D11" s="56">
+        <v>10.4568513821</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="53">
+      <c r="A12" s="23">
         <v>396594.88</v>
       </c>
-      <c r="B12" s="53">
+      <c r="B12" s="23">
         <v>1153570.56</v>
       </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
+      <c r="C12" s="56">
+        <v>-84.944464037100005</v>
+      </c>
+      <c r="D12" s="56">
+        <v>10.431037917299999</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="53">
+      <c r="A13" s="23">
         <v>398345.06</v>
       </c>
-      <c r="B13" s="53">
+      <c r="B13" s="23">
         <v>1151149.76</v>
       </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
+      <c r="C13" s="56">
+        <v>-84.928415208000004</v>
+      </c>
+      <c r="D13" s="56">
+        <v>10.409199660900001</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="53">
+      <c r="A14" s="23">
         <v>391394.81</v>
       </c>
-      <c r="B14" s="53">
+      <c r="B14" s="23">
         <v>1149398.55</v>
       </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
+      <c r="C14" s="56">
+        <v>-84.991835523299997</v>
+      </c>
+      <c r="D14" s="56">
+        <v>10.393177981399999</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="53">
+      <c r="A15" s="23">
         <v>391544.59</v>
       </c>
-      <c r="B15" s="53">
+      <c r="B15" s="23">
         <v>1147203.07</v>
       </c>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
+      <c r="C15" s="56">
+        <v>-84.990405335700004</v>
+      </c>
+      <c r="D15" s="56">
+        <v>10.3733344321</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="53">
+      <c r="A16" s="23">
         <v>406711.47</v>
       </c>
-      <c r="B16" s="53">
+      <c r="B16" s="23">
         <v>1145823.3899999999</v>
       </c>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
+      <c r="C16" s="56">
+        <v>-84.851880463699999</v>
+      </c>
+      <c r="D16" s="56">
+        <v>10.3612582034</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="53">
+      <c r="A17" s="23">
         <v>397184.79</v>
       </c>
-      <c r="B17" s="53">
+      <c r="B17" s="23">
         <v>1168073.6399999999</v>
       </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
+      <c r="C17" s="56">
+        <v>-84.939472213800002</v>
+      </c>
+      <c r="D17" s="56">
+        <v>10.5621668907</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="53">
+      <c r="A18" s="23">
         <v>393932.35</v>
       </c>
-      <c r="B18" s="53">
+      <c r="B18" s="23">
         <v>1167958.6200000001</v>
       </c>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
+      <c r="C18" s="56">
+        <v>-84.969185167399999</v>
+      </c>
+      <c r="D18" s="56">
+        <v>10.561037302700001</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="53">
+      <c r="A19" s="23">
         <v>390752.69</v>
       </c>
-      <c r="B19" s="53">
+      <c r="B19" s="23">
         <v>1167903.8799999999</v>
       </c>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
+      <c r="C19" s="56">
+        <v>-84.998234461600006</v>
+      </c>
+      <c r="D19" s="56">
+        <v>10.5604519816</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="53">
+      <c r="A20" s="23">
         <v>407213.57</v>
       </c>
-      <c r="B20" s="53">
+      <c r="B20" s="23">
         <v>1157069.19</v>
       </c>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
+      <c r="C20" s="56">
+        <v>-84.847570344900006</v>
+      </c>
+      <c r="D20" s="56">
+        <v>10.462939514</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="53">
+      <c r="A21" s="23">
         <v>405083.62</v>
       </c>
-      <c r="B21" s="53">
+      <c r="B21" s="23">
         <v>1144406.08</v>
       </c>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
+      <c r="C21" s="56">
+        <v>-84.866709102100003</v>
+      </c>
+      <c r="D21" s="56">
+        <v>10.3484051361</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="53">
+      <c r="A22" s="23">
         <v>401743.3</v>
       </c>
-      <c r="B22" s="53">
+      <c r="B22" s="23">
         <v>1147749.5900000001</v>
       </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
+      <c r="C22" s="56">
+        <v>-84.897294002600006</v>
+      </c>
+      <c r="D22" s="56">
+        <v>10.378548779100001</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="53">
+      <c r="A23" s="23">
         <v>427371.4</v>
       </c>
-      <c r="B23" s="53">
+      <c r="B23" s="23">
         <v>1124783.69</v>
       </c>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
+      <c r="C23" s="56">
+        <v>-84.662834564299999</v>
+      </c>
+      <c r="D23" s="56">
+        <v>10.1714802724</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="53">
+      <c r="A24" s="23">
         <v>358402.44</v>
       </c>
-      <c r="B24" s="53">
+      <c r="B24" s="23">
         <v>1163138.55</v>
       </c>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
+      <c r="C24" s="56">
+        <v>-85.293605007899998</v>
+      </c>
+      <c r="D24" s="56">
+        <v>10.516304910100001</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="53">
+      <c r="A25" s="23">
         <v>369724.8</v>
       </c>
-      <c r="B25" s="53">
+      <c r="B25" s="23">
         <v>1164156.55</v>
       </c>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
+      <c r="C25" s="56">
+        <v>-85.190217767299998</v>
+      </c>
+      <c r="D25" s="56">
+        <v>10.5259121958</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="53">
+      <c r="A26" s="23">
         <v>352024.2</v>
       </c>
-      <c r="B26" s="53">
+      <c r="B26" s="23">
         <v>1166234.22</v>
       </c>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
+      <c r="C26" s="56">
+        <v>-85.351986201200006</v>
+      </c>
+      <c r="D26" s="56">
+        <v>10.544043805399999</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="53">
+      <c r="A27" s="23">
         <v>373148.14</v>
       </c>
-      <c r="B27" s="53">
+      <c r="B27" s="23">
         <v>1180087.25</v>
       </c>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
+      <c r="C27" s="56">
+        <v>-85.159487718899996</v>
+      </c>
+      <c r="D27" s="56">
+        <v>10.670036298499999</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="53">
+      <c r="A28" s="23">
         <v>380803.43</v>
       </c>
-      <c r="B28" s="53">
+      <c r="B28" s="23">
         <v>1181265.0900000001</v>
       </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
+      <c r="C28" s="56">
+        <v>-85.0895616281</v>
+      </c>
+      <c r="D28" s="56">
+        <v>10.680935287</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="53">
+      <c r="A29" s="23">
         <v>366647.17</v>
       </c>
-      <c r="B29" s="53">
+      <c r="B29" s="23">
         <v>1190101.44</v>
       </c>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
+      <c r="C29" s="56">
+        <v>-85.219262800799996</v>
+      </c>
+      <c r="D29" s="56">
+        <v>10.7603327106</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="53">
+      <c r="A30" s="23">
         <v>351157.1</v>
       </c>
-      <c r="B30" s="53">
+      <c r="B30" s="23">
         <v>1155491.93</v>
       </c>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
+      <c r="C30" s="56">
+        <v>-85.359482745199998</v>
+      </c>
+      <c r="D30" s="56">
+        <v>10.446910040700001</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="53">
+      <c r="A31" s="23">
         <v>385564.38</v>
       </c>
-      <c r="B31" s="53">
+      <c r="B31" s="23">
         <v>1140779.74</v>
       </c>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
+      <c r="C31" s="56">
+        <v>-85.044817901599998</v>
+      </c>
+      <c r="D31" s="56">
+        <v>10.3150935879</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="53">
+      <c r="A32" s="23">
         <v>386121.51</v>
       </c>
-      <c r="B32" s="53">
+      <c r="B32" s="23">
         <v>1148106.27</v>
       </c>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
+      <c r="C32" s="56">
+        <v>-85.039949880500004</v>
+      </c>
+      <c r="D32" s="56">
+        <v>10.3813430753</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="53">
+      <c r="A33" s="23">
         <v>378218.75</v>
       </c>
-      <c r="B33" s="53">
+      <c r="B33" s="23">
         <v>1131002.9099999999</v>
       </c>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
+      <c r="C33" s="56">
+        <v>-85.111567583699994</v>
+      </c>
+      <c r="D33" s="56">
+        <v>10.226487237200001</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="53">
+      <c r="A34" s="23">
         <v>398304.09</v>
       </c>
-      <c r="B34" s="53">
+      <c r="B34" s="23">
         <v>1139191.4099999999</v>
       </c>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
+      <c r="C34" s="56">
+        <v>-84.928471229099998</v>
+      </c>
+      <c r="D34" s="56">
+        <v>10.301089473099999</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="53">
+      <c r="A35" s="23">
         <v>398803.29</v>
       </c>
-      <c r="B35" s="53">
+      <c r="B35" s="23">
         <v>1141740.8799999999</v>
       </c>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
+      <c r="C35" s="56">
+        <v>-84.923981202899995</v>
+      </c>
+      <c r="D35" s="56">
+        <v>10.324151018</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="53">
+      <c r="A36" s="23">
         <v>397188.78</v>
       </c>
-      <c r="B36" s="53">
+      <c r="B36" s="23">
         <v>1126217.6599999999</v>
       </c>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
+      <c r="C36" s="56">
+        <v>-84.938308014</v>
+      </c>
+      <c r="D36" s="56">
+        <v>10.183770811400001</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="53">
+      <c r="A37" s="23">
         <v>406228.01</v>
       </c>
-      <c r="B37" s="53">
+      <c r="B37" s="23">
         <v>1142143</v>
       </c>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
+      <c r="C37" s="56">
+        <v>-84.856204738700001</v>
+      </c>
+      <c r="D37" s="56">
+        <v>10.3279733487</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="53">
+      <c r="A38" s="23">
         <v>379592.78</v>
       </c>
-      <c r="B38" s="53">
+      <c r="B38" s="23">
         <v>1135239.01</v>
       </c>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
+      <c r="C38" s="56">
+        <v>-85.0991595614</v>
+      </c>
+      <c r="D38" s="56">
+        <v>10.2648243489</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="53">
+      <c r="A39" s="23">
         <v>394007.28</v>
       </c>
-      <c r="B39" s="53">
+      <c r="B39" s="23">
         <v>1148810.72</v>
       </c>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53"/>
+      <c r="C39" s="56">
+        <v>-84.967963204</v>
+      </c>
+      <c r="D39" s="56">
+        <v>10.3879366702</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="53">
+      <c r="A40" s="23">
         <v>401790.04</v>
       </c>
-      <c r="B40" s="53">
+      <c r="B40" s="23">
         <v>1166131.73</v>
       </c>
-      <c r="C40" s="53"/>
-      <c r="D40" s="53"/>
+      <c r="C40" s="56">
+        <v>-84.897344584300001</v>
+      </c>
+      <c r="D40" s="56">
+        <v>10.544733517399999</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="53">
+      <c r="A41" s="23">
         <v>406392.7</v>
       </c>
-      <c r="B41" s="53">
+      <c r="B41" s="23">
         <v>1143935.33</v>
       </c>
-      <c r="C41" s="53"/>
-      <c r="D41" s="53"/>
+      <c r="C41" s="56">
+        <v>-84.854744921899993</v>
+      </c>
+      <c r="D41" s="56">
+        <v>10.3441811864</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="53">
+      <c r="A42" s="23">
         <v>321899.09999999998</v>
       </c>
-      <c r="B42" s="53">
+      <c r="B42" s="23">
         <v>1184576.03</v>
       </c>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
+      <c r="C42" s="56">
+        <v>-85.628032800300005</v>
+      </c>
+      <c r="D42" s="56">
+        <v>10.708518574199999</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="53">
+      <c r="A43" s="23">
         <v>408339.20000000001</v>
       </c>
-      <c r="B43" s="53">
+      <c r="B43" s="23">
         <v>1142781.77</v>
       </c>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
+      <c r="C43" s="56">
+        <v>-84.836944796300003</v>
+      </c>
+      <c r="D43" s="56">
+        <v>10.3337988453</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="53">
+      <c r="A44" s="23">
         <v>375546.71</v>
       </c>
-      <c r="B44" s="53">
+      <c r="B44" s="23">
         <v>1132563.95</v>
       </c>
-      <c r="C44" s="53"/>
-      <c r="D44" s="53"/>
+      <c r="C44" s="56">
+        <v>-85.136003739700001</v>
+      </c>
+      <c r="D44" s="56">
+        <v>10.2405148296</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="53">
+      <c r="A45" s="23">
         <v>389031.88</v>
       </c>
-      <c r="B45" s="53">
+      <c r="B45" s="23">
         <v>1134274.57</v>
       </c>
-      <c r="C45" s="53"/>
-      <c r="D45" s="53"/>
+      <c r="C45" s="56">
+        <v>-85.012974982499998</v>
+      </c>
+      <c r="D45" s="56">
+        <v>10.2563858377</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="53">
+      <c r="A46" s="23">
         <v>389349.77</v>
       </c>
-      <c r="B46" s="53">
+      <c r="B46" s="23">
         <v>1133173.53</v>
       </c>
-      <c r="C46" s="53"/>
-      <c r="D46" s="53"/>
+      <c r="C46" s="56">
+        <v>-85.010041896299995</v>
+      </c>
+      <c r="D46" s="56">
+        <v>10.246441130499999</v>
+      </c>
     </row>
     <row r="47" spans="1:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="53">
+      <c r="A47" s="23">
         <v>408111.06</v>
       </c>
-      <c r="B47" s="53">
+      <c r="B47" s="23">
         <v>1143273.8999999999</v>
       </c>
-      <c r="C47" s="53"/>
-      <c r="D47" s="53"/>
+      <c r="C47" s="56">
+        <v>-84.839039569999997</v>
+      </c>
+      <c r="D47" s="56">
+        <v>10.3382426334</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="53">
+      <c r="A48" s="23">
         <v>398234.26</v>
       </c>
-      <c r="B48" s="53">
+      <c r="B48" s="23">
         <v>1137462.21</v>
       </c>
-      <c r="C48" s="53"/>
-      <c r="D48" s="53"/>
+      <c r="C48" s="56">
+        <v>-84.929062967500002</v>
+      </c>
+      <c r="D48" s="56">
+        <v>10.285454804600001</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="53">
+      <c r="A49" s="23">
         <v>400858</v>
       </c>
-      <c r="B49" s="53">
+      <c r="B49" s="23">
         <v>1126379.8600000001</v>
       </c>
-      <c r="C49" s="53"/>
-      <c r="D49" s="53"/>
+      <c r="C49" s="56">
+        <v>-84.904827902700006</v>
+      </c>
+      <c r="D49" s="56">
+        <v>10.1853315441</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="53">
+      <c r="A50" s="23">
         <v>390353.75</v>
       </c>
-      <c r="B50" s="53">
+      <c r="B50" s="23">
         <v>1139230.3999999999</v>
       </c>
-      <c r="C50" s="53"/>
-      <c r="D50" s="53"/>
+      <c r="C50" s="56">
+        <v>-85.001050583099996</v>
+      </c>
+      <c r="D50" s="56">
+        <v>10.301225520299999</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="53">
+      <c r="A51" s="23">
         <v>373547.59</v>
       </c>
-      <c r="B51" s="53">
+      <c r="B51" s="23">
         <v>1126762.7</v>
       </c>
-      <c r="C51" s="53"/>
-      <c r="D51" s="53"/>
+      <c r="C51" s="56">
+        <v>-85.154059932500004</v>
+      </c>
+      <c r="D51" s="56">
+        <v>10.188007903800001</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="53">
+      <c r="A52" s="23">
         <v>384352.56</v>
       </c>
-      <c r="B52" s="53">
+      <c r="B52" s="23">
         <v>1134031.8799999999</v>
       </c>
-      <c r="C52" s="53"/>
-      <c r="D52" s="53"/>
+      <c r="C52" s="56">
+        <v>-85.055678077400003</v>
+      </c>
+      <c r="D52" s="56">
+        <v>10.2540558913</v>
+      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="53">
+      <c r="A53" s="23">
         <v>386517.18</v>
       </c>
-      <c r="B53" s="54">
+      <c r="B53" s="57">
         <v>1134655.3700000001</v>
       </c>
-      <c r="C53" s="53"/>
-      <c r="D53" s="54"/>
+      <c r="C53" s="56">
+        <v>-85.0359391028</v>
+      </c>
+      <c r="D53" s="56">
+        <v>10.259755975899999</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="53">
+      <c r="A54" s="23">
         <v>400174.24</v>
       </c>
-      <c r="B54" s="53">
+      <c r="B54" s="23">
         <v>1144792.8999999999</v>
       </c>
-      <c r="C54" s="53"/>
-      <c r="D54" s="53"/>
+      <c r="C54" s="56">
+        <v>-84.911544344800006</v>
+      </c>
+      <c r="D54" s="56">
+        <v>10.3517784569</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="53">
+      <c r="A55" s="23">
         <v>403970.54</v>
       </c>
-      <c r="B55" s="53">
+      <c r="B55" s="23">
         <v>1143907.8</v>
       </c>
-      <c r="C55" s="53"/>
-      <c r="D55" s="53"/>
+      <c r="C55" s="56">
+        <v>-84.876859634699997</v>
+      </c>
+      <c r="D55" s="56">
+        <v>10.343872877200001</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="53">
+      <c r="A56" s="23">
         <v>396280.95</v>
       </c>
-      <c r="B56" s="53">
+      <c r="B56" s="23">
         <v>1134983.56</v>
       </c>
-      <c r="C56" s="53"/>
-      <c r="D56" s="53"/>
+      <c r="C56" s="56">
+        <v>-84.946827204100003</v>
+      </c>
+      <c r="D56" s="56">
+        <v>10.262995027000001</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="53">
+      <c r="A57" s="23">
         <v>409306.99</v>
       </c>
-      <c r="B57" s="53">
+      <c r="B57" s="23">
         <v>1143459.9099999999</v>
       </c>
-      <c r="C57" s="53"/>
-      <c r="D57" s="53"/>
+      <c r="C57" s="56">
+        <v>-84.828124712299996</v>
+      </c>
+      <c r="D57" s="56">
+        <v>10.3399525296</v>
+      </c>
     </row>
     <row r="58" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="53">
+      <c r="A58" s="23">
         <v>371836.59</v>
       </c>
-      <c r="B58" s="53">
+      <c r="B58" s="23">
         <v>1127093.26</v>
       </c>
-      <c r="C58" s="53"/>
-      <c r="D58" s="53"/>
+      <c r="C58" s="56">
+        <v>-85.169683925200005</v>
+      </c>
+      <c r="D58" s="56">
+        <v>10.1909406345</v>
+      </c>
     </row>
     <row r="59" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="53">
+      <c r="A59" s="23">
         <v>392695.19</v>
       </c>
-      <c r="B59" s="53">
+      <c r="B59" s="23">
         <v>1138370.0900000001</v>
       </c>
-      <c r="C59" s="53"/>
-      <c r="D59" s="53"/>
+      <c r="C59" s="56">
+        <v>-84.979651836200006</v>
+      </c>
+      <c r="D59" s="56">
+        <v>10.2935134368</v>
+      </c>
     </row>
     <row r="60" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="53">
+      <c r="A60" s="23">
         <v>400721.86</v>
       </c>
-      <c r="B60" s="53">
+      <c r="B60" s="23">
         <v>1158742.8600000001</v>
       </c>
-      <c r="C60" s="53"/>
-      <c r="D60" s="53"/>
+      <c r="C60" s="56">
+        <v>-84.906908756500002</v>
+      </c>
+      <c r="D60" s="56">
+        <v>10.477907074899999</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="53">
+      <c r="A61" s="23">
         <v>396329.67</v>
       </c>
-      <c r="B61" s="53">
+      <c r="B61" s="23">
         <v>1160882.2</v>
       </c>
-      <c r="C61" s="53"/>
-      <c r="D61" s="53"/>
+      <c r="C61" s="56">
+        <v>-84.947086624799994</v>
+      </c>
+      <c r="D61" s="56">
+        <v>10.4971306159</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="53">
+      <c r="A62" s="23">
         <v>404300.98</v>
       </c>
-      <c r="B62" s="53">
+      <c r="B62" s="23">
         <v>1145413.72</v>
       </c>
-      <c r="C62" s="53"/>
-      <c r="D62" s="53"/>
+      <c r="C62" s="56">
+        <v>-84.873880262399993</v>
+      </c>
+      <c r="D62" s="56">
+        <v>10.357495507099999</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="53">
+      <c r="A63" s="23">
         <v>401127.42</v>
       </c>
-      <c r="B63" s="53">
+      <c r="B63" s="23">
         <v>1148025.24</v>
       </c>
-      <c r="C63" s="53"/>
-      <c r="D63" s="53"/>
+      <c r="C63" s="56">
+        <v>-84.902924970599997</v>
+      </c>
+      <c r="D63" s="56">
+        <v>10.381025039600001</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="53">
+      <c r="A64" s="23">
         <v>401095.18</v>
       </c>
-      <c r="B64" s="53">
+      <c r="B64" s="23">
         <v>1150086.1299999999</v>
       </c>
-      <c r="C64" s="53"/>
-      <c r="D64" s="53"/>
+      <c r="C64" s="56">
+        <v>-84.903272879499994</v>
+      </c>
+      <c r="D64" s="56">
+        <v>10.3996557179</v>
+      </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="53">
+      <c r="A65" s="23">
         <v>399079.88</v>
       </c>
-      <c r="B65" s="53">
+      <c r="B65" s="23">
         <v>1161159.3400000001</v>
       </c>
-      <c r="C65" s="53"/>
-      <c r="D65" s="53"/>
+      <c r="C65" s="56">
+        <v>-84.921971621799997</v>
+      </c>
+      <c r="D65" s="56">
+        <v>10.499709962600001</v>
+      </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="53">
+      <c r="A66" s="23">
         <v>403592.62</v>
       </c>
-      <c r="B66" s="53">
+      <c r="B66" s="23">
         <v>1147360.8400000001</v>
       </c>
-      <c r="C66" s="53"/>
-      <c r="D66" s="53"/>
+      <c r="C66" s="56">
+        <v>-84.880397320499995</v>
+      </c>
+      <c r="D66" s="56">
+        <v>10.3750809831</v>
+      </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="53">
+      <c r="A67" s="23">
         <v>423489.99</v>
       </c>
-      <c r="B67" s="53">
+      <c r="B67" s="23">
         <v>1131215.27</v>
       </c>
-      <c r="C67" s="53"/>
-      <c r="D67" s="53"/>
+      <c r="C67" s="56">
+        <v>-84.698382628800005</v>
+      </c>
+      <c r="D67" s="56">
+        <v>10.229555059899999</v>
+      </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="53">
+      <c r="A68" s="23">
         <v>422187.39</v>
       </c>
-      <c r="B68" s="53">
+      <c r="B68" s="23">
         <v>1130771.82</v>
       </c>
-      <c r="C68" s="53"/>
-      <c r="D68" s="53"/>
+      <c r="C68" s="56">
+        <v>-84.710263212599997</v>
+      </c>
+      <c r="D68" s="56">
+        <v>10.225520100500001</v>
+      </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="53">
+      <c r="A69" s="23">
         <v>423124</v>
       </c>
-      <c r="B69" s="53">
+      <c r="B69" s="23">
         <v>1123232.3999999999</v>
       </c>
-      <c r="C69" s="53"/>
-      <c r="D69" s="53"/>
+      <c r="C69" s="56">
+        <v>-84.701565307999999</v>
+      </c>
+      <c r="D69" s="56">
+        <v>10.157374172000001</v>
+      </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="53">
+      <c r="A70" s="23">
         <v>420901.06</v>
       </c>
-      <c r="B70" s="53">
+      <c r="B70" s="23">
         <v>1128369.31</v>
       </c>
-      <c r="C70" s="53"/>
-      <c r="D70" s="53"/>
+      <c r="C70" s="56">
+        <v>-84.721955020400003</v>
+      </c>
+      <c r="D70" s="56">
+        <v>10.2037731516</v>
+      </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="53">
+      <c r="A71" s="23">
         <v>420368.31</v>
       </c>
-      <c r="B71" s="53">
+      <c r="B71" s="23">
         <v>1124759.43</v>
       </c>
-      <c r="C71" s="53"/>
-      <c r="D71" s="53"/>
+      <c r="C71" s="56">
+        <v>-84.726743371200001</v>
+      </c>
+      <c r="D71" s="56">
+        <v>10.1711253437</v>
+      </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="53">
+      <c r="A72" s="23">
         <v>424624.58</v>
       </c>
-      <c r="B72" s="53">
+      <c r="B72" s="23">
         <v>1132414.01</v>
       </c>
-      <c r="C72" s="53"/>
-      <c r="D72" s="53"/>
+      <c r="C72" s="56">
+        <v>-84.688049970799995</v>
+      </c>
+      <c r="D72" s="56">
+        <v>10.240415000800001</v>
+      </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="53">
+      <c r="A73" s="23">
         <v>424038.16</v>
       </c>
-      <c r="B73" s="53">
+      <c r="B73" s="23">
         <v>1126609.95</v>
       </c>
-      <c r="C73" s="53"/>
-      <c r="D73" s="53"/>
+      <c r="C73" s="56">
+        <v>-84.693289040600007</v>
+      </c>
+      <c r="D73" s="56">
+        <v>10.187928682500001</v>
+      </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="53">
+      <c r="A74" s="23">
         <v>426487.3</v>
       </c>
-      <c r="B74" s="53">
+      <c r="B74" s="23">
         <v>1129562</v>
       </c>
-      <c r="C74" s="53"/>
-      <c r="D74" s="53"/>
+      <c r="C74" s="56">
+        <v>-84.670993173200003</v>
+      </c>
+      <c r="D74" s="56">
+        <v>10.2146651702</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
